--- a/Farming.xlsx
+++ b/Farming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viddie\Desktop\Rust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03BD0B-0E3E-40CA-B5CE-C3E29025C44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615DF7EB-68CC-4642-9E53-788C055F587B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>viddie</author>
   </authors>
   <commentList>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{1E4A8F05-B6AA-4330-B94D-0500B8C7357A}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{54B2AB97-7D48-4900-922C-4DCB92930EAB}">
       <text>
         <r>
           <rPr>
@@ -47,19 +47,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">viddie:
-</t>
+          <t>viddie:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>This value doesn't make sense with this system, confirmation needed</t>
+          <t xml:space="preserve">
+Inconsistent with other values but confirmed by various ingame tests</t>
         </r>
       </text>
     </comment>
@@ -231,7 +231,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="R67" authorId="0" shapeId="0" xr:uid="{F75E6A0A-6D98-47DD-BE38-ACDB9E2B8F42}">
+    <comment ref="AK60" authorId="0" shapeId="0" xr:uid="{08A38FB0-2C47-4B80-91E0-AEAF76DEA212}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>viddie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reached new stage with this step</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q67" authorId="0" shapeId="0" xr:uid="{F75E6A0A-6D98-47DD-BE38-ACDB9E2B8F42}">
       <text>
         <r>
           <rPr>
@@ -279,12 +303,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{450B10BC-7DA9-47E0-ADA6-93D328C29554}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>viddie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Manually corrected for inconsistent value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{8E9E8DF2-7609-483E-8103-67B85A6E426E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>viddie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;---- Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G118" authorId="0" shapeId="0" xr:uid="{CB8808BD-0337-4A9D-9C57-4A824E9CC61F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>viddie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From here onwards the last step is important as it still increases yield, manual correction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G121" authorId="0" shapeId="0" xr:uid="{80D0BDC3-2593-4DAF-B981-C590374112FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>viddie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wild guess to give +1 minutes here, I didn't have such a plant to test. Taking the results from Freelobear at face value tho, no +1 minutes is needed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O121" authorId="0" shapeId="0" xr:uid="{904CBE06-14C0-4DD1-8D65-3933A0639E23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>viddie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Values not yet confirmed at 6x G genes</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
   <si>
     <t>Farming</t>
   </si>
@@ -403,43 +547,202 @@
     <t>Time for entire cycle</t>
   </si>
   <si>
-    <t>G     /     Y</t>
+    <t>https://www.desmos.com/calculator/lhp9bt7zip</t>
+  </si>
+  <si>
+    <t>Fruiting stage seems to be 1/3th the growth rate of Seedling stage</t>
+  </si>
+  <si>
+    <t>0x G 3x Y</t>
+  </si>
+  <si>
+    <t>G-Genes</t>
+  </si>
+  <si>
+    <t>Y-Genes</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Expected yield per cycle</t>
+  </si>
+  <si>
+    <t>Expected yield per hour</t>
+  </si>
+  <si>
+    <t>G     \     Y</t>
+  </si>
+  <si>
+    <t>----------&gt;</t>
+  </si>
+  <si>
+    <t>4x G</t>
+  </si>
+  <si>
+    <t>Cloning @ Sapling stage</t>
+  </si>
+  <si>
+    <t>1G0Y</t>
+  </si>
+  <si>
+    <t>0G0Y</t>
+  </si>
+  <si>
+    <t>2G0Y</t>
+  </si>
+  <si>
+    <t>3G0Y</t>
+  </si>
+  <si>
+    <t>0G1Y</t>
+  </si>
+  <si>
+    <t>1G1Y</t>
+  </si>
+  <si>
+    <t>2G1Y</t>
+  </si>
+  <si>
+    <t>3G1Y</t>
+  </si>
+  <si>
+    <t>0G2Y</t>
+  </si>
+  <si>
+    <t>1G2Y</t>
+  </si>
+  <si>
+    <t>2G2Y</t>
+  </si>
+  <si>
+    <t>3G2Y</t>
+  </si>
+  <si>
+    <t>0G3Y</t>
+  </si>
+  <si>
+    <t>1G3Y</t>
+  </si>
+  <si>
+    <t>2G3Y</t>
+  </si>
+  <si>
+    <t>3G3Y</t>
+  </si>
+  <si>
+    <t>4G0Y</t>
+  </si>
+  <si>
+    <t>Genes</t>
+  </si>
+  <si>
+    <t>0G4Y</t>
+  </si>
+  <si>
+    <t>4xG</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>Expected yield per cycle (no penalty)</t>
+  </si>
+  <si>
+    <t>1G4Y</t>
+  </si>
+  <si>
+    <t>2G4Y</t>
+  </si>
+  <si>
+    <t>0G5Y</t>
+  </si>
+  <si>
+    <t>1G5Y</t>
+  </si>
+  <si>
+    <t>0G6Y</t>
+  </si>
+  <si>
+    <t>5?</t>
+  </si>
+  <si>
+    <t>2+floor(Y/2)</t>
+  </si>
+  <si>
+    <t>Yield Input</t>
+  </si>
+  <si>
+    <t>Clones</t>
+  </si>
+  <si>
+    <t>Clone Yield</t>
+  </si>
+  <si>
+    <t>50/50 Improved</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Irrelevant starting seed, preferably with as many G's as possible to reach the crossbreeding stage fast</t>
+  </si>
+  <si>
+    <t>Base seed where you want to replace a green gene with another green gene</t>
+  </si>
+  <si>
+    <t>Replacement seed which has the desired green gene in the desired slot</t>
+  </si>
+  <si>
+    <t>Replacement seed which differs in all slots from R1 except the desired slot</t>
+  </si>
+  <si>
+    <t>Seed+CB</t>
+  </si>
+  <si>
+    <t>Expected yield per hour (+cloning)</t>
   </si>
   <si>
     <t>Hours</t>
   </si>
   <si>
-    <t>https://www.desmos.com/calculator/lhp9bt7zip</t>
-  </si>
-  <si>
-    <t>Fruiting stage seems to be 1/3th the growth rate of Seedling stage</t>
-  </si>
-  <si>
-    <t>0x G 3x Y</t>
-  </si>
-  <si>
-    <t>G-Genes</t>
-  </si>
-  <si>
-    <t>Y-Genes</t>
-  </si>
-  <si>
-    <t>Yield</t>
-  </si>
-  <si>
-    <t>Expected yield per cycle</t>
-  </si>
-  <si>
-    <t>Expected yield per hour</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Gain per Y gene change</t>
-  </si>
-  <si>
-    <t>Gain per G gene change</t>
+    <t>The X's need to reach crossbreeding first, the B's second and R1 &amp; R2 last. This ensures you have 4 tries for the 50/50 to replace the undesired green gene with a better one (93.75% success chance each cycle while costing ~2 minutes more time if placed properly)</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>No success</t>
+  </si>
+  <si>
+    <t>One of the first</t>
+  </si>
+  <si>
+    <t>One of the second</t>
+  </si>
+  <si>
+    <t>Improved base gene</t>
+  </si>
+  <si>
+    <t>Two of the first</t>
+  </si>
+  <si>
+    <t>Two of the second</t>
+  </si>
+  <si>
+    <t>78 yield HOW?</t>
   </si>
 </sst>
 </file>
@@ -449,7 +752,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +823,16 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,12 +874,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,8 +896,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -962,17 +1278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
@@ -1010,18 +1315,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1029,8 +1375,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1067,26 +1414,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1107,65 +1521,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="38" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="36" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Akzent6" xfId="6" builtinId="49"/>
+    <cellStyle name="Ausgabe" xfId="7" builtinId="21"/>
     <cellStyle name="Eingabe" xfId="4" builtinId="20"/>
     <cellStyle name="Notiz" xfId="5" builtinId="10"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1449,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AP157"/>
+  <dimension ref="A2:AP151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M124" sqref="M124"/>
+    <sheetView tabSelected="1" topLeftCell="D105" workbookViewId="0">
+      <selection activeCell="Z127" sqref="Z127:AA127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,44 +1838,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" spans="2:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <v>0.67</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="2:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="Y6" s="56" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="Y6" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="95"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1513,33 +1885,38 @@
       <c r="N8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
       <c r="Y8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AB8" s="46" t="s">
+      <c r="AB8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AC8" s="47"/>
+      <c r="AC8" s="89"/>
       <c r="AD8" s="28"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="I9" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
       <c r="Y9" s="5">
         <v>1</v>
       </c>
       <c r="Z9" s="5">
         <v>63</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9" s="87">
         <f>AVERAGE(Z9:Z26)</f>
         <v>59.666666666666664</v>
       </c>
-      <c r="AC9" s="47"/>
+      <c r="AC9" s="89"/>
       <c r="AD9" s="28"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
@@ -1558,11 +1935,12 @@
       <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="G10" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
       <c r="N10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1601,9 +1979,9 @@
       <c r="F11" s="16">
         <v>12</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
+      <c r="G11" s="16">
+        <v>13</v>
+      </c>
       <c r="N11" s="14">
         <v>1</v>
       </c>
@@ -1641,6 +2019,9 @@
       </c>
       <c r="F12" s="17">
         <v>23</v>
+      </c>
+      <c r="G12" s="17">
+        <v>27</v>
       </c>
       <c r="N12" s="15">
         <v>2</v>
@@ -1672,12 +2053,15 @@
       <c r="F13" s="26">
         <v>35</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="G13" s="26">
+        <v>40</v>
+      </c>
+      <c r="I13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
       <c r="Y13" s="6">
         <v>5</v>
       </c>
@@ -1701,10 +2085,13 @@
       <c r="F14" s="17">
         <v>47</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="G14" s="17">
+        <v>53</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
       <c r="Y14" s="6">
         <v>6</v>
       </c>
@@ -1728,10 +2115,13 @@
       <c r="F15" s="6">
         <v>59</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="G15" s="17">
+        <v>67</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
       <c r="Y15" s="6">
         <v>7</v>
       </c>
@@ -1753,17 +2143,23 @@
       <c r="F16" s="6">
         <v>70</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
+      <c r="G16" s="6">
+        <v>80</v>
+      </c>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
       <c r="Y16" s="6">
         <v>8</v>
       </c>
       <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="21">
         <v>7</v>
       </c>
       <c r="C17" s="10">
@@ -1777,6 +2173,9 @@
       </c>
       <c r="F17" s="6">
         <v>82</v>
+      </c>
+      <c r="G17" s="23">
+        <v>93</v>
       </c>
       <c r="Y17" s="6">
         <v>9</v>
@@ -1802,6 +2201,7 @@
       <c r="F18" s="23">
         <v>93</v>
       </c>
+      <c r="G18" s="6"/>
       <c r="Y18" s="6">
         <v>10</v>
       </c>
@@ -1821,6 +2221,12 @@
         <v>90</v>
       </c>
       <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="M19" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
@@ -1841,6 +2247,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
@@ -1854,11 +2261,18 @@
       <c r="C21" s="10">
         <v>73</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="23">
         <v>92</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="M21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
@@ -1872,6 +2286,19 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="M22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="P22" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" s="75"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
@@ -1885,6 +2312,21 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2</v>
+      </c>
+      <c r="P23" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="99">
+        <v>3</v>
+      </c>
+      <c r="S23" s="100"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
@@ -1898,6 +2340,20 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="P24" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="101">
+        <f>2+ROUNDDOWN(R23/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S24" s="102"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
@@ -1914,6 +2370,11 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
@@ -1925,6 +2386,13 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="6">
+        <v>2</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
@@ -1936,6 +2404,13 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
@@ -1945,6 +2420,13 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
@@ -1954,6 +2436,13 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
@@ -1963,62 +2452,105 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="X30" s="54" t="s">
+      <c r="G30" s="7"/>
+      <c r="M30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="X30" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AC31" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
+      <c r="M31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="6">
+        <v>3</v>
+      </c>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AC31" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
+      <c r="M32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="6">
+        <v>3</v>
+      </c>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+    </row>
+    <row r="33" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="M33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="M34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="I35" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="R35" s="60" t="s">
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="M35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="Q35" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="60"/>
-      <c r="X35" s="60" t="s">
+      <c r="R35" s="77"/>
+      <c r="X35" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Y35" s="60"/>
+      <c r="Y35" s="77"/>
       <c r="AN35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AO35" s="31">
+      <c r="AO35" s="69">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="36" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="M36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N36" s="6">
+        <v>3</v>
+      </c>
       <c r="X36" t="s">
         <v>5</v>
       </c>
@@ -2030,6 +2562,9 @@
       </c>
       <c r="AI36" t="s">
         <v>12</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2048,68 +2583,75 @@
       <c r="F37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="M37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="Q37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="R37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T37" s="4" t="s">
+      <c r="S37" s="56" t="s">
         <v>6</v>
       </c>
+      <c r="T37" s="56" t="s">
+        <v>7</v>
+      </c>
       <c r="U37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X37" s="33" t="s">
+      <c r="V37" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Y37" s="33" t="s">
+      <c r="Y37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z37" s="33" t="s">
+      <c r="Z37" s="32" t="s">
         <v>23</v>
       </c>
       <c r="AA37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB37" s="33" t="s">
+      <c r="AB37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AC37" s="33" t="s">
+      <c r="AC37" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AD37" s="33" t="s">
+      <c r="AD37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AE37" s="36" t="s">
+      <c r="AE37" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AF37" s="33" t="s">
+      <c r="AF37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AG37" s="33" t="s">
+      <c r="AG37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AH37" s="33" t="s">
+      <c r="AH37" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AI37" s="33" t="s">
+      <c r="AI37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AJ37" s="33" t="s">
+      <c r="AJ37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AK37" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN37" s="57" t="s">
+      <c r="AK37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN37" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AO37" s="57"/>
-      <c r="AP37" s="57"/>
+      <c r="AO37" s="78"/>
+      <c r="AP37" s="78"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
@@ -2137,21 +2679,26 @@
         <f>I38*2</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="R38" s="13">
+      <c r="M38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="Q38" s="13">
         <v>1</v>
       </c>
-      <c r="S38" s="9">
+      <c r="R38" s="58">
         <v>2</v>
+      </c>
+      <c r="S38" s="5">
+        <v>3</v>
       </c>
       <c r="T38" s="5">
         <v>3</v>
       </c>
-      <c r="U38" s="5">
-        <v>3</v>
-      </c>
-      <c r="V38" s="16">
+      <c r="U38" s="16">
         <v>4</v>
       </c>
+      <c r="V38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5">
         <v>10.83</v>
@@ -2168,7 +2715,7 @@
       <c r="AC38" s="5">
         <v>11.25</v>
       </c>
-      <c r="AD38" s="38">
+      <c r="AD38" s="36">
         <v>11.48</v>
       </c>
       <c r="AE38" s="30">
@@ -2185,7 +2732,9 @@
       </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
+      <c r="AK38" s="5">
+        <v>11.33</v>
+      </c>
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
@@ -2213,21 +2762,28 @@
         <f t="shared" ref="J39:J46" si="3">I39*2</f>
         <v>7.7777777777777777</v>
       </c>
-      <c r="R39" s="14">
+      <c r="M39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="14">
         <v>2</v>
       </c>
-      <c r="S39" s="10">
+      <c r="R39" s="54">
         <v>4</v>
       </c>
+      <c r="S39" s="6">
+        <v>6</v>
+      </c>
       <c r="T39" s="6">
-        <v>6</v>
-      </c>
-      <c r="U39" s="6">
         <v>7</v>
       </c>
-      <c r="V39" s="17">
+      <c r="U39" s="17">
         <v>8</v>
       </c>
+      <c r="V39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6">
         <v>11.67</v>
@@ -2244,7 +2800,7 @@
       <c r="AC39" s="6">
         <v>12.5</v>
       </c>
-      <c r="AD39" s="38">
+      <c r="AD39" s="36">
         <v>12.93</v>
       </c>
       <c r="AE39" s="6">
@@ -2261,7 +2817,9 @@
       </c>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
+      <c r="AK39" s="66">
+        <v>12.67</v>
+      </c>
       <c r="AN39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2296,21 +2854,26 @@
         <f t="shared" si="3"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="R40" s="14">
+      <c r="M40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="Q40" s="14">
         <v>3</v>
       </c>
-      <c r="S40" s="10">
+      <c r="R40" s="54">
         <v>7</v>
       </c>
+      <c r="S40" s="6">
+        <v>8</v>
+      </c>
       <c r="T40" s="6">
-        <v>8</v>
-      </c>
-      <c r="U40" s="6">
         <v>10</v>
       </c>
-      <c r="V40" s="17">
+      <c r="U40" s="17">
         <v>12</v>
       </c>
+      <c r="V40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6">
         <v>12.5</v>
@@ -2344,7 +2907,9 @@
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
+      <c r="AK40" s="6">
+        <v>14</v>
+      </c>
       <c r="AN40" s="4" t="s">
         <v>22</v>
       </c>
@@ -2379,21 +2944,26 @@
         <f t="shared" si="3"/>
         <v>15.555555555555555</v>
       </c>
-      <c r="R41" s="14">
+      <c r="M41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="Q41" s="14">
         <v>4</v>
       </c>
-      <c r="S41" s="10">
+      <c r="R41" s="54">
         <v>9</v>
       </c>
+      <c r="S41" s="6">
+        <v>11</v>
+      </c>
       <c r="T41" s="6">
-        <v>11</v>
-      </c>
-      <c r="U41" s="6">
         <v>13</v>
       </c>
-      <c r="V41" s="17">
+      <c r="U41" s="17">
         <v>16</v>
       </c>
+      <c r="V41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6">
         <v>13.33</v>
@@ -2413,7 +2983,7 @@
       <c r="AD41" s="6">
         <v>15.83</v>
       </c>
-      <c r="AE41" s="38">
+      <c r="AE41" s="36">
         <v>16.663333333333298</v>
       </c>
       <c r="AF41" s="6">
@@ -2427,7 +2997,9 @@
       </c>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
+      <c r="AK41" s="6">
+        <v>15.33</v>
+      </c>
       <c r="AN41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2464,19 +3036,24 @@
         <f t="shared" si="3"/>
         <v>19.444444444444443</v>
       </c>
-      <c r="R42" s="14">
+      <c r="M42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42" s="6"/>
+      <c r="Q42" s="14">
         <v>5</v>
       </c>
-      <c r="S42" s="10">
+      <c r="R42" s="54">
         <v>11</v>
       </c>
+      <c r="S42" s="6">
+        <v>14</v>
+      </c>
       <c r="T42" s="6">
-        <v>14</v>
-      </c>
-      <c r="U42" s="6">
         <v>17</v>
       </c>
-      <c r="V42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6">
         <v>14.17</v>
@@ -2496,7 +3073,7 @@
       <c r="AD42" s="6">
         <v>17.29</v>
       </c>
-      <c r="AE42" s="38">
+      <c r="AE42" s="36">
         <v>18.328333333333301</v>
       </c>
       <c r="AF42" s="6">
@@ -2510,7 +3087,9 @@
       </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
+      <c r="AK42" s="6">
+        <v>16.670000000000002</v>
+      </c>
       <c r="AN42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2544,19 +3123,26 @@
         <f t="shared" si="3"/>
         <v>23.333333333333332</v>
       </c>
-      <c r="R43" s="14">
+      <c r="M43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="14">
         <v>6</v>
       </c>
-      <c r="S43" s="10">
+      <c r="R43" s="54">
         <v>13</v>
       </c>
+      <c r="S43" s="6">
+        <v>17</v>
+      </c>
       <c r="T43" s="6">
-        <v>17</v>
-      </c>
-      <c r="U43" s="6">
         <v>20</v>
       </c>
-      <c r="V43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6">
         <v>15</v>
@@ -2576,7 +3162,7 @@
       <c r="AD43" s="6">
         <v>18.75</v>
       </c>
-      <c r="AE43" s="38">
+      <c r="AE43" s="36">
         <v>19.9933333333333</v>
       </c>
       <c r="AF43" s="6">
@@ -2590,7 +3176,9 @@
       </c>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
+      <c r="AK43" s="6">
+        <v>18</v>
+      </c>
       <c r="AN43" s="4" t="s">
         <v>26</v>
       </c>
@@ -2624,19 +3212,26 @@
         <f t="shared" si="3"/>
         <v>27.222222222222221</v>
       </c>
-      <c r="R44" s="14">
+      <c r="M44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="14">
         <v>7</v>
       </c>
-      <c r="S44" s="10">
+      <c r="R44" s="54">
         <v>16</v>
       </c>
+      <c r="S44" s="6">
+        <v>19</v>
+      </c>
       <c r="T44" s="6">
-        <v>19</v>
-      </c>
-      <c r="U44" s="6">
         <v>23</v>
       </c>
-      <c r="V44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6">
         <v>15.83</v>
@@ -2656,7 +3251,7 @@
       <c r="AD44" s="6">
         <v>20.21</v>
       </c>
-      <c r="AE44" s="38">
+      <c r="AE44" s="36">
         <v>21.658333333333299</v>
       </c>
       <c r="AF44" s="6">
@@ -2670,7 +3265,9 @@
       </c>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
+      <c r="AK44" s="6">
+        <v>19.329999999999998</v>
+      </c>
       <c r="AN44" s="4" t="s">
         <v>27</v>
       </c>
@@ -2704,19 +3301,20 @@
         <f t="shared" si="3"/>
         <v>31.111111111111111</v>
       </c>
-      <c r="R45" s="14">
+      <c r="Q45" s="14">
         <v>8</v>
       </c>
-      <c r="S45" s="10">
+      <c r="R45" s="54">
         <v>18</v>
       </c>
+      <c r="S45" s="6">
+        <v>22</v>
+      </c>
       <c r="T45" s="6">
-        <v>22</v>
-      </c>
-      <c r="U45" s="6">
         <v>27</v>
       </c>
-      <c r="V45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6">
         <v>16.670000000000002</v>
@@ -2736,7 +3334,7 @@
       <c r="AD45" s="6">
         <v>21.67</v>
       </c>
-      <c r="AE45" s="38">
+      <c r="AE45" s="36">
         <v>23.323333333333299</v>
       </c>
       <c r="AF45" s="6">
@@ -2750,7 +3348,9 @@
       </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
+      <c r="AK45" s="6">
+        <v>20.67</v>
+      </c>
       <c r="AN45" s="4" t="s">
         <v>28</v>
       </c>
@@ -2784,19 +3384,22 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="R46" s="24">
+      <c r="Q46" s="24">
         <v>9</v>
       </c>
-      <c r="S46" s="25">
+      <c r="R46" s="25">
         <v>20</v>
       </c>
+      <c r="S46" s="26">
+        <v>25</v>
+      </c>
       <c r="T46" s="26">
-        <v>25</v>
-      </c>
-      <c r="U46" s="26">
         <v>30</v>
       </c>
-      <c r="V46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="6">
+        <v>40</v>
+      </c>
       <c r="X46" s="6"/>
       <c r="Y46" s="6">
         <v>17.5</v>
@@ -2816,7 +3419,7 @@
       <c r="AD46" s="6">
         <v>23.13</v>
       </c>
-      <c r="AE46" s="38">
+      <c r="AE46" s="36">
         <v>24.988333333333301</v>
       </c>
       <c r="AF46" s="6">
@@ -2830,7 +3433,9 @@
       </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
+      <c r="AK46" s="6">
+        <v>22</v>
+      </c>
     </row>
     <row r="47" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
@@ -2856,19 +3461,20 @@
         <f t="shared" si="2"/>
         <v>19.444444444444443</v>
       </c>
-      <c r="R47" s="14">
+      <c r="Q47" s="14">
         <v>10</v>
       </c>
-      <c r="S47" s="10">
+      <c r="R47" s="54">
         <v>22</v>
       </c>
+      <c r="S47" s="6">
+        <v>28</v>
+      </c>
       <c r="T47" s="6">
-        <v>28</v>
-      </c>
-      <c r="U47" s="6">
         <v>33</v>
       </c>
-      <c r="V47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6">
         <v>18.329999999999998</v>
@@ -2888,7 +3494,7 @@
       <c r="AD47" s="6">
         <v>24.58</v>
       </c>
-      <c r="AE47" s="38">
+      <c r="AE47" s="36">
         <v>26.6533333333333</v>
       </c>
       <c r="AF47" s="6">
@@ -2902,7 +3508,9 @@
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
-      <c r="AK47" s="6"/>
+      <c r="AK47" s="6">
+        <v>23.33</v>
+      </c>
     </row>
     <row r="48" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
@@ -2928,19 +3536,22 @@
         <f t="shared" si="2"/>
         <v>21.388888888888889</v>
       </c>
-      <c r="R48" s="14">
+      <c r="Q48" s="14">
         <v>11</v>
       </c>
-      <c r="S48" s="10"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="6">
+        <v>31</v>
+      </c>
       <c r="T48" s="6">
-        <v>31</v>
-      </c>
-      <c r="U48" s="6">
         <v>37</v>
       </c>
-      <c r="V48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="6">
+        <v>49</v>
+      </c>
       <c r="X48" s="6"/>
-      <c r="Y48" s="38">
+      <c r="Y48" s="36">
         <v>19.166</v>
       </c>
       <c r="Z48" s="6">
@@ -2958,7 +3569,7 @@
       <c r="AD48" s="6">
         <v>26.04</v>
       </c>
-      <c r="AE48" s="38">
+      <c r="AE48" s="36">
         <v>28.3183333333333</v>
       </c>
       <c r="AF48" s="6">
@@ -2972,7 +3583,9 @@
       </c>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
+      <c r="AK48" s="6">
+        <v>24.67</v>
+      </c>
     </row>
     <row r="49" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
@@ -3006,25 +3619,26 @@
         <f>M55*1.5</f>
         <v>2.5</v>
       </c>
-      <c r="R49" s="14">
+      <c r="Q49" s="14">
         <v>12</v>
       </c>
-      <c r="S49" s="10"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="6">
+        <v>33</v>
+      </c>
       <c r="T49" s="6">
-        <v>33</v>
-      </c>
-      <c r="U49" s="6">
         <v>40</v>
       </c>
-      <c r="V49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="6"/>
       <c r="X49" s="6"/>
-      <c r="Y49" s="38">
+      <c r="Y49" s="36">
         <v>19.9992727272727</v>
       </c>
       <c r="Z49" s="6">
         <v>22</v>
       </c>
-      <c r="AA49" s="38">
+      <c r="AA49" s="36">
         <v>19.9992727272727</v>
       </c>
       <c r="AB49" s="17">
@@ -3034,7 +3648,7 @@
         <v>25</v>
       </c>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="38">
+      <c r="AE49" s="36">
         <v>29.983333333333299</v>
       </c>
       <c r="AF49" s="6">
@@ -3048,7 +3662,9 @@
       </c>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="6"/>
+      <c r="AK49" s="6">
+        <v>26</v>
+      </c>
     </row>
     <row r="50" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
@@ -3074,35 +3690,38 @@
         <f t="shared" si="2"/>
         <v>25.277777777777779</v>
       </c>
-      <c r="R50" s="14">
+      <c r="Q50" s="14">
         <v>13</v>
       </c>
-      <c r="S50" s="10"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="6">
+        <v>36</v>
+      </c>
       <c r="T50" s="6">
-        <v>36</v>
-      </c>
-      <c r="U50" s="6">
         <v>43</v>
       </c>
-      <c r="V50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="6">
+        <v>58</v>
+      </c>
       <c r="X50" s="6"/>
-      <c r="Y50" s="38">
+      <c r="Y50" s="36">
         <v>20.8325454545455</v>
       </c>
       <c r="Z50" s="6">
         <v>23</v>
       </c>
-      <c r="AA50" s="38">
+      <c r="AA50" s="36">
         <v>20.8325454545455</v>
       </c>
-      <c r="AB50" s="38">
+      <c r="AB50" s="36">
         <v>23.5430909090909</v>
       </c>
       <c r="AC50" s="6">
         <v>26.25</v>
       </c>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="38">
+      <c r="AE50" s="36">
         <v>31.648333333333301</v>
       </c>
       <c r="AF50" s="6">
@@ -3116,7 +3735,9 @@
       </c>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
+      <c r="AK50" s="6">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="51" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
@@ -3142,35 +3763,36 @@
         <f t="shared" si="2"/>
         <v>27.222222222222221</v>
       </c>
-      <c r="R51" s="14">
+      <c r="Q51" s="14">
         <v>14</v>
       </c>
-      <c r="S51" s="10"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="6">
+        <v>39</v>
+      </c>
       <c r="T51" s="6">
-        <v>39</v>
-      </c>
-      <c r="U51" s="6">
         <v>47</v>
       </c>
-      <c r="V51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="6"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="38">
+      <c r="Y51" s="36">
         <v>21.665818181818199</v>
       </c>
       <c r="Z51" s="6">
         <v>24</v>
       </c>
-      <c r="AA51" s="38">
+      <c r="AA51" s="36">
         <v>21.665818181818199</v>
       </c>
-      <c r="AB51" s="38">
+      <c r="AB51" s="36">
         <v>24.5848181818182</v>
       </c>
       <c r="AC51" s="6">
         <v>27.5</v>
       </c>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="38">
+      <c r="AE51" s="36">
         <v>33.313333333333297</v>
       </c>
       <c r="AF51" s="6">
@@ -3184,7 +3806,9 @@
       </c>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="6"/>
+      <c r="AK51" s="6">
+        <v>28.67</v>
+      </c>
     </row>
     <row r="52" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
@@ -3210,35 +3834,36 @@
         <f t="shared" si="2"/>
         <v>29.166666666666668</v>
       </c>
-      <c r="R52" s="14">
+      <c r="Q52" s="14">
         <v>15</v>
       </c>
-      <c r="S52" s="10"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="6">
+        <v>42</v>
+      </c>
       <c r="T52" s="6">
-        <v>42</v>
-      </c>
-      <c r="U52" s="6">
         <v>50</v>
       </c>
-      <c r="V52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="6"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="38">
+      <c r="Y52" s="36">
         <v>22.499090909090899</v>
       </c>
       <c r="Z52" s="6">
         <v>25</v>
       </c>
-      <c r="AA52" s="38">
+      <c r="AA52" s="36">
         <v>22.499090909090899</v>
       </c>
-      <c r="AB52" s="38">
+      <c r="AB52" s="36">
         <v>25.626545454545401</v>
       </c>
       <c r="AC52" s="6">
         <v>28.75</v>
       </c>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="38">
+      <c r="AE52" s="36">
         <v>34.978333333333303</v>
       </c>
       <c r="AF52" s="6">
@@ -3252,7 +3877,9 @@
       </c>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
-      <c r="AK52" s="6"/>
+      <c r="AK52" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
@@ -3278,35 +3905,36 @@
         <f t="shared" si="2"/>
         <v>31.111111111111111</v>
       </c>
-      <c r="R53" s="14">
+      <c r="Q53" s="14">
         <v>16</v>
       </c>
-      <c r="S53" s="10"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="6">
+        <v>44</v>
+      </c>
       <c r="T53" s="6">
-        <v>44</v>
-      </c>
-      <c r="U53" s="6">
         <v>53</v>
       </c>
-      <c r="V53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="6"/>
       <c r="X53" s="6"/>
-      <c r="Y53" s="38">
+      <c r="Y53" s="36">
         <v>23.332363636363599</v>
       </c>
       <c r="Z53" s="6">
         <v>26</v>
       </c>
-      <c r="AA53" s="38">
+      <c r="AA53" s="36">
         <v>23.332363636363599</v>
       </c>
-      <c r="AB53" s="38">
+      <c r="AB53" s="36">
         <v>26.668272727272701</v>
       </c>
       <c r="AC53" s="6">
         <v>30</v>
       </c>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="38">
+      <c r="AE53" s="36">
         <v>36.643333333333302</v>
       </c>
       <c r="AF53" s="6">
@@ -3320,9 +3948,11 @@
       </c>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
+      <c r="AK53" s="6">
+        <v>31.33</v>
+      </c>
       <c r="AM53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AN53">
         <v>45</v>
@@ -3352,37 +3982,38 @@
         <f t="shared" si="2"/>
         <v>33.055555555555557</v>
       </c>
-      <c r="R54" s="14">
+      <c r="Q54" s="14">
         <v>17</v>
       </c>
-      <c r="S54" s="10">
+      <c r="R54" s="54">
         <v>38</v>
       </c>
+      <c r="S54" s="6">
+        <v>47</v>
+      </c>
       <c r="T54" s="6">
-        <v>47</v>
-      </c>
-      <c r="U54" s="6">
         <v>57</v>
       </c>
-      <c r="V54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="6"/>
       <c r="X54" s="6"/>
-      <c r="Y54" s="38">
+      <c r="Y54" s="36">
         <v>24.165636363636299</v>
       </c>
       <c r="Z54" s="6">
         <v>27</v>
       </c>
-      <c r="AA54" s="38">
+      <c r="AA54" s="36">
         <v>24.165636363636299</v>
       </c>
-      <c r="AB54" s="38">
+      <c r="AB54" s="36">
         <v>27.71</v>
       </c>
       <c r="AC54" s="6">
         <v>31.25</v>
       </c>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="38">
+      <c r="AE54" s="36">
         <v>38.308333333333302</v>
       </c>
       <c r="AF54" s="6">
@@ -3396,7 +4027,9 @@
       </c>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
-      <c r="AK54" s="6"/>
+      <c r="AK54" s="6">
+        <v>32.67</v>
+      </c>
     </row>
     <row r="55" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B55" s="24">
@@ -3438,37 +4071,38 @@
         <f>F55/$B55</f>
         <v>1.9444444444444444</v>
       </c>
-      <c r="R55" s="14">
+      <c r="Q55" s="14">
         <v>18</v>
       </c>
-      <c r="S55" s="10">
+      <c r="R55" s="54">
         <v>40</v>
       </c>
+      <c r="S55" s="6">
+        <v>50</v>
+      </c>
       <c r="T55" s="6">
-        <v>50</v>
-      </c>
-      <c r="U55" s="6">
         <v>60</v>
       </c>
-      <c r="V55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="6"/>
       <c r="X55" s="6"/>
-      <c r="Y55" s="38">
+      <c r="Y55" s="36">
         <v>24.998909090909098</v>
       </c>
       <c r="Z55" s="6">
         <v>28</v>
       </c>
-      <c r="AA55" s="38">
+      <c r="AA55" s="36">
         <v>24.998909090909098</v>
       </c>
-      <c r="AB55" s="38">
+      <c r="AB55" s="36">
         <v>28.751727272727301</v>
       </c>
       <c r="AC55" s="6">
         <v>32.5</v>
       </c>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="38">
+      <c r="AE55" s="36">
         <v>39.973333333333301</v>
       </c>
       <c r="AF55" s="6">
@@ -3482,7 +4116,9 @@
       </c>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
-      <c r="AK55" s="6"/>
+      <c r="AK55" s="6">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
@@ -3506,35 +4142,36 @@
         <f t="shared" si="2"/>
         <v>36.944444444444443</v>
       </c>
-      <c r="R56" s="14">
+      <c r="Q56" s="14">
         <v>19</v>
       </c>
-      <c r="S56" s="10"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="6">
+        <v>53</v>
+      </c>
       <c r="T56" s="6">
-        <v>53</v>
-      </c>
-      <c r="U56" s="6">
         <v>63</v>
       </c>
-      <c r="V56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="6"/>
       <c r="X56" s="6"/>
-      <c r="Y56" s="38">
+      <c r="Y56" s="36">
         <v>25.832181818181802</v>
       </c>
       <c r="Z56" s="6">
         <v>29</v>
       </c>
-      <c r="AA56" s="38">
+      <c r="AA56" s="36">
         <v>25.832181818181802</v>
       </c>
-      <c r="AB56" s="38">
+      <c r="AB56" s="36">
         <v>29.793454545454502</v>
       </c>
       <c r="AC56" s="6">
         <v>33.75</v>
       </c>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="38">
+      <c r="AE56" s="36">
         <v>41.6383333333333</v>
       </c>
       <c r="AF56" s="6">
@@ -3548,7 +4185,9 @@
       </c>
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
-      <c r="AK56" s="6"/>
+      <c r="AK56" s="6">
+        <v>35.33</v>
+      </c>
     </row>
     <row r="57" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
@@ -3572,35 +4211,36 @@
         <f t="shared" si="2"/>
         <v>38.888888888888886</v>
       </c>
-      <c r="R57" s="14">
+      <c r="Q57" s="14">
         <v>20</v>
       </c>
-      <c r="S57" s="10"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="6">
+        <v>56</v>
+      </c>
       <c r="T57" s="6">
-        <v>56</v>
-      </c>
-      <c r="U57" s="6">
         <v>67</v>
       </c>
-      <c r="V57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="6"/>
       <c r="X57" s="6"/>
-      <c r="Y57" s="38">
+      <c r="Y57" s="36">
         <v>26.665454545454502</v>
       </c>
       <c r="Z57" s="6">
         <v>30</v>
       </c>
-      <c r="AA57" s="38">
+      <c r="AA57" s="36">
         <v>26.665454545454502</v>
       </c>
-      <c r="AB57" s="38">
+      <c r="AB57" s="36">
         <v>30.835181818181798</v>
       </c>
       <c r="AC57" s="6">
         <v>35</v>
       </c>
       <c r="AD57" s="6"/>
-      <c r="AE57" s="38">
+      <c r="AE57" s="36">
         <v>43.303333333333299</v>
       </c>
       <c r="AF57" s="6">
@@ -3614,7 +4254,9 @@
       </c>
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
-      <c r="AK57" s="6"/>
+      <c r="AK57" s="6">
+        <v>36.67</v>
+      </c>
     </row>
     <row r="58" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
@@ -3646,35 +4288,36 @@
         <f>M55*6</f>
         <v>10</v>
       </c>
-      <c r="R58" s="14">
+      <c r="Q58" s="14">
         <v>21</v>
       </c>
-      <c r="S58" s="10"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="6">
+        <v>58</v>
+      </c>
       <c r="T58" s="6">
-        <v>58</v>
-      </c>
-      <c r="U58" s="6">
         <v>70</v>
       </c>
-      <c r="V58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="6"/>
       <c r="X58" s="6"/>
-      <c r="Y58" s="38">
+      <c r="Y58" s="36">
         <v>27.498727272727301</v>
       </c>
       <c r="Z58" s="6">
         <v>31</v>
       </c>
-      <c r="AA58" s="38">
+      <c r="AA58" s="36">
         <v>27.498727272727301</v>
       </c>
-      <c r="AB58" s="38">
+      <c r="AB58" s="36">
         <v>31.876909090909098</v>
       </c>
       <c r="AC58" s="6">
         <v>36.25</v>
       </c>
       <c r="AD58" s="6"/>
-      <c r="AE58" s="38">
+      <c r="AE58" s="36">
         <v>44.968333333333298</v>
       </c>
       <c r="AF58" s="6">
@@ -3688,9 +4331,11 @@
       </c>
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AM58" s="42" t="s">
-        <v>44</v>
+      <c r="AK58" s="6">
+        <v>38</v>
+      </c>
+      <c r="AM58" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="AN58" s="31">
         <v>4</v>
@@ -3717,35 +4362,38 @@
         <v>42.777777777777779</v>
       </c>
       <c r="L59" s="27"/>
-      <c r="R59" s="14">
+      <c r="Q59" s="14">
         <v>22</v>
       </c>
-      <c r="S59" s="10"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="6">
+        <v>61</v>
+      </c>
       <c r="T59" s="6">
-        <v>61</v>
-      </c>
-      <c r="U59" s="6">
         <v>73</v>
       </c>
-      <c r="V59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="6">
+        <v>98</v>
+      </c>
       <c r="X59" s="6"/>
-      <c r="Y59" s="38">
+      <c r="Y59" s="36">
         <v>28.332000000000001</v>
       </c>
       <c r="Z59" s="6">
         <v>32</v>
       </c>
-      <c r="AA59" s="38">
+      <c r="AA59" s="36">
         <v>28.332000000000001</v>
       </c>
-      <c r="AB59" s="38">
+      <c r="AB59" s="36">
         <v>32.918636363636402</v>
       </c>
       <c r="AC59" s="6">
         <v>37.5</v>
       </c>
       <c r="AD59" s="6"/>
-      <c r="AE59" s="38">
+      <c r="AE59" s="36">
         <v>46.633333333333297</v>
       </c>
       <c r="AF59" s="6">
@@ -3759,9 +4407,11 @@
       </c>
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
-      <c r="AK59" s="6"/>
-      <c r="AM59" s="42" t="s">
-        <v>45</v>
+      <c r="AK59" s="6">
+        <v>39.33</v>
+      </c>
+      <c r="AM59" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="AN59" s="31">
         <v>1</v>
@@ -3795,35 +4445,36 @@
         <f>(20 + 5*2) / 3</f>
         <v>10</v>
       </c>
-      <c r="R60" s="14">
+      <c r="Q60" s="14">
         <v>23</v>
       </c>
-      <c r="S60" s="10"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="6">
+        <v>64</v>
+      </c>
       <c r="T60" s="6">
-        <v>64</v>
-      </c>
-      <c r="U60" s="6">
         <v>77</v>
       </c>
-      <c r="V60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="6"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="38">
+      <c r="Y60" s="36">
         <v>29.165272727272701</v>
       </c>
       <c r="Z60" s="6">
         <v>33</v>
       </c>
-      <c r="AA60" s="38">
+      <c r="AA60" s="36">
         <v>29.165272727272701</v>
       </c>
-      <c r="AB60" s="38">
+      <c r="AB60" s="36">
         <v>33.960363636363603</v>
       </c>
       <c r="AC60" s="6">
         <v>38.75</v>
       </c>
       <c r="AD60" s="6"/>
-      <c r="AE60" s="38">
+      <c r="AE60" s="36">
         <v>48.298333333333296</v>
       </c>
       <c r="AF60" s="6">
@@ -3837,11 +4488,13 @@
       </c>
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
-      <c r="AK60" s="6"/>
-      <c r="AM60" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN60" s="42">
+      <c r="AK60" s="6">
+        <v>40.67</v>
+      </c>
+      <c r="AM60" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN60" s="40">
         <f>(30+5*AN58)+(5+1.25*AN58)*AN59</f>
         <v>60</v>
       </c>
@@ -3866,35 +4519,36 @@
         <f t="shared" si="2"/>
         <v>46.666666666666664</v>
       </c>
-      <c r="R61" s="14">
+      <c r="Q61" s="14">
         <v>24</v>
       </c>
-      <c r="S61" s="10"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="6">
+        <v>67</v>
+      </c>
       <c r="T61" s="6">
-        <v>67</v>
-      </c>
-      <c r="U61" s="6">
         <v>80</v>
       </c>
-      <c r="V61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="6"/>
       <c r="X61" s="6"/>
-      <c r="Y61" s="38">
+      <c r="Y61" s="36">
         <v>29.9985454545454</v>
       </c>
       <c r="Z61" s="6">
         <v>34</v>
       </c>
-      <c r="AA61" s="38">
+      <c r="AA61" s="36">
         <v>29.9985454545454</v>
       </c>
-      <c r="AB61" s="38">
+      <c r="AB61" s="36">
         <v>35.002090909090903</v>
       </c>
       <c r="AC61" s="6">
         <v>40</v>
       </c>
       <c r="AD61" s="6"/>
-      <c r="AE61" s="38">
+      <c r="AE61" s="36">
         <v>49.963333333333303</v>
       </c>
       <c r="AF61" s="6">
@@ -3930,35 +4584,36 @@
         <f t="shared" si="2"/>
         <v>48.611111111111107</v>
       </c>
-      <c r="R62" s="14">
+      <c r="Q62" s="14">
         <v>25</v>
       </c>
-      <c r="S62" s="10"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="6">
+        <v>69</v>
+      </c>
       <c r="T62" s="6">
-        <v>69</v>
-      </c>
-      <c r="U62" s="6">
         <v>83</v>
       </c>
-      <c r="V62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="6"/>
       <c r="X62" s="6"/>
-      <c r="Y62" s="38">
+      <c r="Y62" s="36">
         <v>30.8318181818182</v>
       </c>
       <c r="Z62" s="6">
         <v>35</v>
       </c>
-      <c r="AA62" s="38">
+      <c r="AA62" s="36">
         <v>30.8318181818182</v>
       </c>
-      <c r="AB62" s="38">
+      <c r="AB62" s="36">
         <v>36.043818181818203</v>
       </c>
       <c r="AC62" s="6">
         <v>41.25</v>
       </c>
       <c r="AD62" s="6"/>
-      <c r="AE62" s="38">
+      <c r="AE62" s="36">
         <v>51.628333333333302</v>
       </c>
       <c r="AF62" s="6">
@@ -3994,35 +4649,36 @@
         <f t="shared" si="2"/>
         <v>50.555555555555557</v>
       </c>
-      <c r="R63" s="14">
+      <c r="Q63" s="14">
         <v>26</v>
       </c>
-      <c r="S63" s="10"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="6">
+        <v>72</v>
+      </c>
       <c r="T63" s="6">
-        <v>72</v>
-      </c>
-      <c r="U63" s="6">
         <v>87</v>
       </c>
-      <c r="V63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="6"/>
       <c r="X63" s="6"/>
-      <c r="Y63" s="38">
+      <c r="Y63" s="36">
         <v>31.6650909090909</v>
       </c>
       <c r="Z63" s="6">
         <v>36</v>
       </c>
-      <c r="AA63" s="38">
+      <c r="AA63" s="36">
         <v>31.6650909090909</v>
       </c>
-      <c r="AB63" s="38">
+      <c r="AB63" s="36">
         <v>37.085545454545397</v>
       </c>
       <c r="AC63" s="6">
         <v>42.5</v>
       </c>
       <c r="AD63" s="6"/>
-      <c r="AE63" s="38">
+      <c r="AE63" s="36">
         <v>53.293333333333301</v>
       </c>
       <c r="AF63" s="6">
@@ -4058,37 +4714,38 @@
         <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="R64" s="14">
+      <c r="Q64" s="14">
         <v>27</v>
       </c>
-      <c r="S64" s="10">
+      <c r="R64" s="54">
         <v>60</v>
       </c>
+      <c r="S64" s="6">
+        <v>75</v>
+      </c>
       <c r="T64" s="6">
-        <v>75</v>
-      </c>
-      <c r="U64" s="6">
         <v>90</v>
       </c>
-      <c r="V64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="6"/>
       <c r="X64" s="6"/>
-      <c r="Y64" s="38">
+      <c r="Y64" s="36">
         <v>32.498363636363599</v>
       </c>
       <c r="Z64" s="6">
         <v>37</v>
       </c>
-      <c r="AA64" s="38">
+      <c r="AA64" s="36">
         <v>32.498363636363599</v>
       </c>
-      <c r="AB64" s="38">
+      <c r="AB64" s="36">
         <v>38.127272727272697</v>
       </c>
       <c r="AC64" s="6">
         <v>43.75</v>
       </c>
       <c r="AD64" s="6"/>
-      <c r="AE64" s="38">
+      <c r="AE64" s="36">
         <v>54.9583333333333</v>
       </c>
       <c r="AF64" s="6">
@@ -4124,37 +4781,38 @@
         <f t="shared" si="2"/>
         <v>54.444444444444443</v>
       </c>
-      <c r="R65" s="14">
+      <c r="Q65" s="14">
         <v>28</v>
       </c>
-      <c r="S65" s="10">
+      <c r="R65" s="54">
         <v>62</v>
       </c>
+      <c r="S65" s="6">
+        <v>78</v>
+      </c>
       <c r="T65" s="6">
-        <v>78</v>
-      </c>
-      <c r="U65" s="6">
         <v>93</v>
       </c>
-      <c r="V65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="6"/>
       <c r="X65" s="6"/>
-      <c r="Y65" s="38">
+      <c r="Y65" s="36">
         <v>33.331636363636299</v>
       </c>
       <c r="Z65" s="6">
         <v>38</v>
       </c>
-      <c r="AA65" s="38">
+      <c r="AA65" s="36">
         <v>33.331636363636299</v>
       </c>
-      <c r="AB65" s="38">
+      <c r="AB65" s="36">
         <v>39.168999999999997</v>
       </c>
       <c r="AC65" s="6">
         <v>45</v>
       </c>
       <c r="AD65" s="6"/>
-      <c r="AE65" s="38">
+      <c r="AE65" s="36">
         <v>56.623333333333299</v>
       </c>
       <c r="AF65" s="6">
@@ -4190,37 +4848,38 @@
         <f t="shared" si="2"/>
         <v>56.388888888888886</v>
       </c>
-      <c r="R66" s="14">
+      <c r="Q66" s="14">
         <v>29</v>
       </c>
-      <c r="S66" s="10">
+      <c r="R66" s="54">
         <v>64</v>
       </c>
+      <c r="S66" s="6">
+        <v>81</v>
+      </c>
       <c r="T66" s="6">
-        <v>81</v>
-      </c>
-      <c r="U66" s="6">
         <v>97</v>
       </c>
-      <c r="V66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="6"/>
       <c r="X66" s="6"/>
-      <c r="Y66" s="38">
+      <c r="Y66" s="36">
         <v>34.164909090909099</v>
       </c>
       <c r="Z66" s="6">
         <v>39</v>
       </c>
-      <c r="AA66" s="38">
+      <c r="AA66" s="36">
         <v>34.164909090909099</v>
       </c>
-      <c r="AB66" s="38">
+      <c r="AB66" s="36">
         <v>40.210727272727297</v>
       </c>
       <c r="AC66" s="6">
         <v>46.25</v>
       </c>
       <c r="AD66" s="6"/>
-      <c r="AE66" s="38">
+      <c r="AE66" s="36">
         <v>58.288333333333298</v>
       </c>
       <c r="AF66" s="6">
@@ -4256,19 +4915,20 @@
         <f t="shared" si="2"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="R67" s="39">
+      <c r="Q67" s="37">
         <v>30</v>
       </c>
-      <c r="S67" s="10">
+      <c r="R67" s="54">
         <v>67</v>
       </c>
+      <c r="S67" s="6">
+        <v>83</v>
+      </c>
       <c r="T67" s="6">
-        <v>83</v>
-      </c>
-      <c r="U67" s="6">
         <v>100</v>
       </c>
-      <c r="V67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="6"/>
       <c r="X67" s="6">
         <v>30</v>
       </c>
@@ -4314,17 +4974,18 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="R68" s="14">
+      <c r="Q68" s="14">
         <v>31</v>
       </c>
-      <c r="S68" s="10">
+      <c r="R68" s="54">
         <v>69</v>
       </c>
-      <c r="T68" s="6">
+      <c r="S68" s="6">
         <v>86</v>
       </c>
-      <c r="U68" s="6"/>
-      <c r="V68" s="17"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6">
         <v>35</v>
@@ -4338,7 +4999,7 @@
       <c r="AB68" s="6">
         <v>41.25</v>
       </c>
-      <c r="AC68" s="37">
+      <c r="AC68" s="35">
         <v>47.5</v>
       </c>
       <c r="AD68" s="6"/>
@@ -4360,15 +5021,16 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="R69" s="14">
+      <c r="Q69" s="14">
         <v>32</v>
       </c>
-      <c r="S69" s="10"/>
-      <c r="T69" s="6">
+      <c r="R69" s="54"/>
+      <c r="S69" s="6">
         <v>89</v>
       </c>
-      <c r="U69" s="6"/>
-      <c r="V69" s="17"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6">
         <v>35</v>
@@ -4382,7 +5044,7 @@
       <c r="AB69" s="6">
         <v>41.25</v>
       </c>
-      <c r="AC69" s="37">
+      <c r="AC69" s="35">
         <v>47.5</v>
       </c>
       <c r="AD69" s="6"/>
@@ -4404,15 +5066,16 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="R70" s="14">
+      <c r="Q70" s="14">
         <v>33</v>
       </c>
-      <c r="S70" s="10"/>
-      <c r="T70" s="6">
+      <c r="R70" s="54"/>
+      <c r="S70" s="6">
         <v>92</v>
       </c>
-      <c r="U70" s="6"/>
-      <c r="V70" s="17"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6">
         <v>35</v>
@@ -4426,7 +5089,7 @@
       <c r="AB70" s="6">
         <v>41.25</v>
       </c>
-      <c r="AC70" s="37">
+      <c r="AC70" s="35">
         <v>47.5</v>
       </c>
       <c r="AD70" s="6"/>
@@ -4448,15 +5111,16 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="R71" s="14">
+      <c r="Q71" s="14">
         <v>34</v>
       </c>
-      <c r="S71" s="10"/>
-      <c r="T71" s="6">
+      <c r="R71" s="54"/>
+      <c r="S71" s="6">
         <v>95</v>
       </c>
-      <c r="U71" s="6"/>
-      <c r="V71" s="17"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6">
         <v>35</v>
@@ -4470,7 +5134,7 @@
       <c r="AB71" s="6">
         <v>41.25</v>
       </c>
-      <c r="AC71" s="37">
+      <c r="AC71" s="35">
         <v>47.5</v>
       </c>
       <c r="AD71" s="6"/>
@@ -4492,15 +5156,16 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="R72" s="14">
+      <c r="Q72" s="14">
         <v>35</v>
       </c>
-      <c r="S72" s="10"/>
-      <c r="T72" s="6">
+      <c r="R72" s="54"/>
+      <c r="S72" s="6">
         <v>97</v>
       </c>
-      <c r="U72" s="6"/>
-      <c r="V72" s="17"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="6"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6">
         <v>35</v>
@@ -4514,7 +5179,7 @@
       <c r="AB72" s="6">
         <v>41.25</v>
       </c>
-      <c r="AC72" s="37">
+      <c r="AC72" s="35">
         <v>47.5</v>
       </c>
       <c r="AD72" s="6"/>
@@ -4536,17 +5201,18 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="R73" s="14">
+      <c r="Q73" s="14">
         <v>36</v>
       </c>
-      <c r="S73" s="10">
+      <c r="R73" s="54">
         <v>80</v>
       </c>
-      <c r="T73" s="6">
+      <c r="S73" s="6">
         <v>100</v>
       </c>
-      <c r="U73" s="6"/>
-      <c r="V73" s="17"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6">
         <v>35</v>
@@ -4560,7 +5226,7 @@
       <c r="AB73" s="6">
         <v>41.25</v>
       </c>
-      <c r="AC73" s="37">
+      <c r="AC73" s="35">
         <v>47.5</v>
       </c>
       <c r="AD73" s="6"/>
@@ -4582,13 +5248,14 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="R74" s="14">
+      <c r="Q74" s="14">
         <v>37</v>
       </c>
-      <c r="S74" s="10"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="6"/>
       <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="6"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6">
         <v>35</v>
@@ -4616,13 +5283,14 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="R75" s="14">
+      <c r="Q75" s="14">
         <v>38</v>
       </c>
-      <c r="S75" s="10"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="6"/>
       <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6">
         <v>35</v>
@@ -4650,13 +5318,14 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="R76" s="14">
+      <c r="Q76" s="14">
         <v>39</v>
       </c>
-      <c r="S76" s="10"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="6"/>
       <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="6"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6">
         <v>35</v>
@@ -4684,13 +5353,14 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="R77" s="14">
+      <c r="Q77" s="14">
         <v>40</v>
       </c>
-      <c r="S77" s="10"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="6"/>
       <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6">
         <v>35</v>
@@ -4718,13 +5388,14 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="R78" s="14">
+      <c r="Q78" s="14">
         <v>41</v>
       </c>
-      <c r="S78" s="10"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="6"/>
       <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6">
         <v>35</v>
@@ -4752,13 +5423,14 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="R79" s="14">
+      <c r="Q79" s="14">
         <v>42</v>
       </c>
-      <c r="S79" s="10"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="6"/>
       <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6">
         <v>35</v>
@@ -4786,13 +5458,14 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="R80" s="14">
+      <c r="Q80" s="14">
         <v>43</v>
       </c>
-      <c r="S80" s="10"/>
+      <c r="R80" s="54"/>
+      <c r="S80" s="6"/>
       <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6">
         <v>35</v>
@@ -4820,13 +5493,14 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="R81" s="14">
+      <c r="Q81" s="14">
         <v>44</v>
       </c>
-      <c r="S81" s="10"/>
+      <c r="R81" s="54"/>
+      <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6">
         <v>35</v>
@@ -4854,15 +5528,16 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="R82" s="14">
+      <c r="Q82" s="14">
         <v>45</v>
       </c>
-      <c r="S82" s="10">
+      <c r="R82" s="54">
         <v>100</v>
       </c>
+      <c r="S82" s="6"/>
       <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="6"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6">
         <v>35</v>
@@ -4890,13 +5565,14 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="R83" s="14">
+      <c r="Q83" s="14">
         <v>46</v>
       </c>
-      <c r="S83" s="10"/>
+      <c r="R83" s="54"/>
+      <c r="S83" s="6"/>
       <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="6"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
@@ -4984,41 +5660,41 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="97" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="55" t="s">
+    <row r="97" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-    </row>
-    <row r="98" spans="2:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-    </row>
-    <row r="99" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B100" s="60" t="s">
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
+    </row>
+    <row r="98" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="86"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+    </row>
+    <row r="99" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B100" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
       <c r="F100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="31">
+      <c r="G100" s="69">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q100" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="R100" s="63"/>
-      <c r="S100" s="63"/>
-      <c r="T100" s="63"/>
-      <c r="U100" s="63"/>
-    </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q100" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="R100" s="91"/>
+      <c r="S100" s="91"/>
+      <c r="T100" s="91"/>
+      <c r="U100" s="91"/>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>33</v>
       </c>
@@ -5035,7 +5711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B103" s="5">
         <v>0</v>
       </c>
@@ -5055,13 +5731,16 @@
         <f>((1.5*(20 + 5*$B103)) / 9)*$G$100</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="K103" s="46" t="s">
+      <c r="K103" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="L103" s="62"/>
-      <c r="M103" s="47"/>
-    </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L103" s="88"/>
+      <c r="M103" s="89"/>
+      <c r="Q103" s="61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>1</v>
       </c>
@@ -5081,8 +5760,29 @@
         <f t="shared" ref="F104:F109" si="6">((1.5*(20 + 5*$B104)) / 9)*$G$100</f>
         <v>2.7777777777777777</v>
       </c>
-    </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q104" s="61">
+        <v>0</v>
+      </c>
+      <c r="R104" s="61">
+        <v>1</v>
+      </c>
+      <c r="S104" s="61">
+        <v>2</v>
+      </c>
+      <c r="T104" s="61">
+        <v>3</v>
+      </c>
+      <c r="U104" s="61">
+        <v>4</v>
+      </c>
+      <c r="V104" s="61">
+        <v>5</v>
+      </c>
+      <c r="W104" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>2</v>
       </c>
@@ -5102,8 +5802,29 @@
         <f t="shared" si="6"/>
         <v>3.333333333333333</v>
       </c>
-    </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q105" s="70">
+        <v>2</v>
+      </c>
+      <c r="R105" s="71">
+        <v>2</v>
+      </c>
+      <c r="S105" s="71">
+        <v>3</v>
+      </c>
+      <c r="T105" s="71">
+        <v>3</v>
+      </c>
+      <c r="U105" s="71">
+        <v>4</v>
+      </c>
+      <c r="V105" s="71">
+        <v>4</v>
+      </c>
+      <c r="W105" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>3</v>
       </c>
@@ -5124,7 +5845,7 @@
         <v>3.8888888888888884</v>
       </c>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>4</v>
       </c>
@@ -5145,7 +5866,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>5</v>
       </c>
@@ -5166,7 +5887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B109" s="7">
         <v>6</v>
       </c>
@@ -5187,52 +5908,64 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I110" s="61" t="s">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="I110" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="J110" s="61"/>
+      <c r="J110" s="75"/>
       <c r="K110" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B112" s="60" t="s">
+    <row r="112" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B112" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
-      <c r="P112" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q112" s="60"/>
-      <c r="R112" s="60"/>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="P112" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="Z112" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA112" s="90"/>
+      <c r="AB112" s="90"/>
+      <c r="AC112" s="90"/>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="F114" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="G114" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="66" t="s">
+      <c r="H114" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J114" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I114" s="66"/>
-      <c r="J114" s="35" t="s">
-        <v>40</v>
+      <c r="K114" s="79"/>
+      <c r="L114" s="72" t="s">
+        <v>95</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q114" s="4">
         <v>0</v>
@@ -5255,1250 +5988,1609 @@
       <c r="W114" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z114" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA114" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="56">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="56">
+        <v>2</v>
+      </c>
+      <c r="AD114" s="56">
+        <v>3</v>
+      </c>
+      <c r="AE114" s="56">
+        <v>4</v>
+      </c>
+      <c r="AF114" s="56">
+        <v>5</v>
+      </c>
+      <c r="AG114" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="5">
         <v>0</v>
       </c>
       <c r="C115" s="5">
-        <f>ROUNDDOWN(100/C103,0)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" ref="D115:F115" si="7">ROUNDDOWN(100/D103,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN(100/C103,0)+1</f>
+        <v>16</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <f>ROUNDDOWN(100/D103,0)+1</f>
+        <v>16</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="H115" s="67">
-        <f>SUM(C115:F115)</f>
-        <v>165</v>
-      </c>
-      <c r="I115" s="68"/>
-      <c r="J115" s="5">
-        <f>ROUND(H115/60,2)</f>
-        <v>2.75</v>
+        <f>ROUNDDOWN(100/E103,0)+1</f>
+        <v>91</v>
+      </c>
+      <c r="G115" s="5">
+        <v>30</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" ref="H115:H121" si="7">IF(G115&gt;=30,1,G115/30)</f>
+        <v>1</v>
+      </c>
+      <c r="J115" s="80">
+        <f t="shared" ref="J115:J121" si="8">SUM(C115:G115)</f>
+        <v>157</v>
+      </c>
+      <c r="K115" s="81"/>
+      <c r="L115" s="5">
+        <f t="shared" ref="L115:L121" si="9">ROUND(J115/60,2)</f>
+        <v>2.62</v>
       </c>
       <c r="P115" s="4">
         <v>0</v>
       </c>
       <c r="Q115" s="18">
-        <f>(30+5*$P115)+(5+1.25*$P115)*Q$114</f>
+        <f t="shared" ref="Q115:W121" si="10">IF($H115=1,AA115,((AA115-10)*$H115)+10)</f>
         <v>30</v>
       </c>
       <c r="R115" s="29">
-        <f t="shared" ref="R115:W115" si="8">(30+5*$P115)+(5+1.25*$P115)*R$114</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="S115" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="T115" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="U115" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="V115" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="W115" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z115" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="57">
+        <f>(30+5*$P115)+(5+1.25*$P115)*AA$114</f>
+        <v>30</v>
+      </c>
+      <c r="AB115" s="29">
+        <f t="shared" ref="AB115:AG115" si="11">(30+5*$P115)+(5+1.25*$P115)*AB$114</f>
+        <v>35</v>
+      </c>
+      <c r="AC115" s="29">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AD115" s="29">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="AE115" s="29">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="AF115" s="29">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="AG115" s="58">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="6">
         <v>1</v>
       </c>
       <c r="C116" s="6">
-        <f t="shared" ref="C116:C121" si="9">ROUNDDOWN(100/C104,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D116" s="6">
+        <f>ROUNDDOWN(100/C104,0)</f>
         <v>12</v>
       </c>
-      <c r="D116" s="6">
-        <f t="shared" ref="D116:F116" si="10">ROUNDDOWN(100/D104,0)</f>
+      <c r="E116" s="6">
+        <f>ROUNDDOWN(100/D104,0)</f>
         <v>12</v>
       </c>
-      <c r="E116" s="6">
+      <c r="F116" s="6">
+        <f t="shared" ref="F116:F121" si="12">ROUNDDOWN(100/E104,0)+1</f>
+        <v>73</v>
+      </c>
+      <c r="G116" s="6">
+        <v>30</v>
+      </c>
+      <c r="H116" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J116" s="82">
+        <f t="shared" si="8"/>
+        <v>131</v>
+      </c>
+      <c r="K116" s="83"/>
+      <c r="L116" s="6">
+        <f t="shared" si="9"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M116" s="33"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="19">
         <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="F116" s="6">
+        <v>35</v>
+      </c>
+      <c r="R116" s="33">
         <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="H116" s="64">
-        <f t="shared" ref="H116:H121" si="11">SUM(C116:F116)</f>
-        <v>132</v>
-      </c>
-      <c r="I116" s="65"/>
-      <c r="J116" s="6">
-        <f t="shared" ref="J116:J121" si="12">ROUND(H116/60,2)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M116" s="34"/>
-      <c r="O116" s="34"/>
-      <c r="P116" s="73">
+        <v>41.25</v>
+      </c>
+      <c r="S116" s="33">
+        <f t="shared" si="10"/>
+        <v>47.5</v>
+      </c>
+      <c r="T116" s="33">
+        <f t="shared" si="10"/>
+        <v>53.75</v>
+      </c>
+      <c r="U116" s="33">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="V116" s="33">
+        <f t="shared" si="10"/>
+        <v>66.25</v>
+      </c>
+      <c r="W116" s="50">
+        <f t="shared" si="10"/>
+        <v>72.5</v>
+      </c>
+      <c r="Z116" s="48">
         <v>1</v>
       </c>
-      <c r="Q116" s="19">
-        <f t="shared" ref="Q116:W121" si="13">(30+5*$P116)+(5+1.25*$P116)*Q$114</f>
+      <c r="AA116" s="53">
+        <f>(30+5*$P116)+(5+1.25*$P116)*AA$114</f>
         <v>35</v>
       </c>
-      <c r="R116" s="34">
-        <f t="shared" si="13"/>
+      <c r="AB116" s="33">
+        <f t="shared" ref="AA116:AG121" si="13">(30+5*$P116)+(5+1.25*$P116)*AB$114</f>
         <v>41.25</v>
       </c>
-      <c r="S116" s="34">
+      <c r="AC116" s="33">
         <f t="shared" si="13"/>
         <v>47.5</v>
       </c>
-      <c r="T116" s="34">
+      <c r="AD116" s="33">
         <f t="shared" si="13"/>
         <v>53.75</v>
       </c>
-      <c r="U116" s="34">
+      <c r="AE116" s="33">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="V116" s="34">
+      <c r="AF116" s="33">
         <f t="shared" si="13"/>
         <v>66.25</v>
       </c>
-      <c r="W116" s="90">
+      <c r="AG116" s="50">
         <f t="shared" si="13"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="117" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="6">
         <v>2</v>
       </c>
       <c r="C117" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" ref="D117:F117" si="14">ROUNDDOWN(100/D105,0)</f>
-        <v>10</v>
+        <f t="shared" ref="D117:E117" si="14">ROUNDDOWN(100/C105,0)+1</f>
+        <v>11</v>
       </c>
       <c r="E117" s="6">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="G117" s="6">
+        <f>ROUNDDOWN(100/F105,0)</f>
         <v>30</v>
       </c>
-      <c r="H117" s="64">
-        <f t="shared" si="11"/>
-        <v>110</v>
-      </c>
-      <c r="I117" s="65"/>
-      <c r="J117" s="6">
-        <f t="shared" si="12"/>
-        <v>1.83</v>
-      </c>
-      <c r="M117" s="34"/>
-      <c r="O117" s="41"/>
+      <c r="H117" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J117" s="82">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="K117" s="83"/>
+      <c r="L117" s="6">
+        <f t="shared" si="9"/>
+        <v>1.95</v>
+      </c>
+      <c r="M117" s="33"/>
+      <c r="O117" s="39"/>
       <c r="P117" s="4">
         <v>2</v>
       </c>
       <c r="Q117" s="19">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="R117" s="33">
+        <f t="shared" si="10"/>
+        <v>47.5</v>
+      </c>
+      <c r="S117" s="33">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="T117" s="33">
+        <f t="shared" si="10"/>
+        <v>62.5</v>
+      </c>
+      <c r="U117" s="47">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="V117" s="51">
+        <f t="shared" si="10"/>
+        <v>77.5</v>
+      </c>
+      <c r="W117" s="22">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="Z117" s="56">
+        <v>2</v>
+      </c>
+      <c r="AA117" s="53">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="R117" s="34">
+      <c r="AB117" s="33">
         <f t="shared" si="13"/>
         <v>47.5</v>
       </c>
-      <c r="S117" s="34">
+      <c r="AC117" s="33">
         <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="T117" s="34">
+      <c r="AD117" s="33">
         <f t="shared" si="13"/>
         <v>62.5</v>
       </c>
-      <c r="U117" s="34">
+      <c r="AE117" s="33">
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="V117" s="91">
+      <c r="AF117" s="51">
         <f t="shared" si="13"/>
         <v>77.5</v>
       </c>
-      <c r="W117" s="22">
+      <c r="AG117" s="22">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6">
         <v>3</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" ref="D118:F118" si="15">ROUNDDOWN(100/D106,0)</f>
-        <v>8</v>
+        <f t="shared" ref="D118:E118" si="15">ROUNDDOWN(100/C106,0)+1</f>
+        <v>9</v>
       </c>
       <c r="E118" s="6">
         <f t="shared" si="15"/>
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="H118" s="64">
-        <f t="shared" si="11"/>
-        <v>92</v>
-      </c>
-      <c r="I118" s="65"/>
-      <c r="J118" s="6">
         <f t="shared" si="12"/>
-        <v>1.53</v>
+        <v>52</v>
+      </c>
+      <c r="G118" s="67">
+        <f>ROUNDDOWN(100/F106,0)+1</f>
+        <v>26</v>
+      </c>
+      <c r="H118" s="6">
+        <f t="shared" si="7"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J118" s="82">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="K118" s="83"/>
+      <c r="L118" s="6">
+        <f t="shared" si="9"/>
+        <v>1.65</v>
       </c>
       <c r="P118" s="4">
         <v>3</v>
       </c>
       <c r="Q118" s="19">
+        <f t="shared" si="10"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="R118" s="33">
+        <f t="shared" si="10"/>
+        <v>47.916666666666671</v>
+      </c>
+      <c r="S118" s="33">
+        <f t="shared" si="10"/>
+        <v>55.5</v>
+      </c>
+      <c r="T118" s="33">
+        <f t="shared" si="10"/>
+        <v>63.083333333333336</v>
+      </c>
+      <c r="U118" s="51">
+        <f t="shared" si="10"/>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="V118" s="45">
+        <f t="shared" si="10"/>
+        <v>78.25</v>
+      </c>
+      <c r="W118" s="22">
+        <f t="shared" si="10"/>
+        <v>85.833333333333343</v>
+      </c>
+      <c r="Z118" s="56">
+        <v>3</v>
+      </c>
+      <c r="AA118" s="53">
         <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="R118" s="34">
+      <c r="AB118" s="33">
         <f t="shared" si="13"/>
         <v>53.75</v>
       </c>
-      <c r="S118" s="34">
+      <c r="AC118" s="33">
         <f t="shared" si="13"/>
         <v>62.5</v>
       </c>
-      <c r="T118" s="72">
+      <c r="AD118" s="47">
         <f t="shared" si="13"/>
         <v>71.25</v>
       </c>
-      <c r="U118" s="91">
+      <c r="AE118" s="51">
         <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="V118" s="70">
+      <c r="AF118" s="45">
         <f t="shared" si="13"/>
         <v>88.75</v>
       </c>
-      <c r="W118" s="22">
+      <c r="AG118" s="22">
         <f t="shared" si="13"/>
         <v>97.5</v>
       </c>
     </row>
-    <row r="119" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="6">
         <v>4</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" ref="D119:F119" si="16">ROUNDDOWN(100/D107,0)</f>
-        <v>7</v>
+        <f t="shared" ref="D119:E119" si="16">ROUNDDOWN(100/C107,0)+1</f>
+        <v>8</v>
       </c>
       <c r="E119" s="6">
         <f t="shared" si="16"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="16"/>
-        <v>22</v>
-      </c>
-      <c r="H119" s="64">
-        <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="I119" s="65"/>
-      <c r="J119" s="6">
         <f t="shared" si="12"/>
-        <v>1.35</v>
+        <v>46</v>
+      </c>
+      <c r="G119" s="67">
+        <f>ROUNDDOWN(100/F107,0)+1</f>
+        <v>23</v>
+      </c>
+      <c r="H119" s="6">
+        <f t="shared" si="7"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="J119" s="82">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="K119" s="83"/>
+      <c r="L119" s="6">
+        <f t="shared" si="9"/>
+        <v>1.47</v>
       </c>
       <c r="P119" s="4">
         <v>4</v>
       </c>
       <c r="Q119" s="19">
+        <f t="shared" si="10"/>
+        <v>40.666666666666671</v>
+      </c>
+      <c r="R119" s="33">
+        <f t="shared" si="10"/>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="S119" s="33">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="T119" s="51">
+        <f t="shared" si="10"/>
+        <v>63.666666666666671</v>
+      </c>
+      <c r="U119" s="45">
+        <f t="shared" si="10"/>
+        <v>71.333333333333343</v>
+      </c>
+      <c r="V119" s="45">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="W119" s="22">
+        <f t="shared" si="10"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="Z119" s="56">
+        <v>4</v>
+      </c>
+      <c r="AA119" s="53">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="R119" s="34">
+      <c r="AB119" s="33">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="S119" s="34">
+      <c r="AC119" s="33">
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="T119" s="91">
+      <c r="AD119" s="51">
         <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="U119" s="70">
+      <c r="AE119" s="45">
         <f t="shared" si="13"/>
         <v>90</v>
       </c>
-      <c r="V119" s="70">
+      <c r="AF119" s="45">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="W119" s="22">
+      <c r="AG119" s="22">
         <f t="shared" si="13"/>
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="6">
         <v>5</v>
       </c>
       <c r="C120" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" ref="D120:F120" si="17">ROUNDDOWN(100/D108,0)</f>
-        <v>6</v>
+        <f t="shared" ref="D120:E120" si="17">ROUNDDOWN(100/C108,0)+1</f>
+        <v>7</v>
       </c>
       <c r="E120" s="6">
         <f t="shared" si="17"/>
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="H120" s="64">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="I120" s="65"/>
-      <c r="J120" s="6">
         <f t="shared" si="12"/>
-        <v>1.2</v>
+        <v>41</v>
+      </c>
+      <c r="G120" s="67">
+        <f>ROUNDDOWN(100/F108,0)+1</f>
+        <v>21</v>
+      </c>
+      <c r="H120" s="6">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="J120" s="82">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="K120" s="83"/>
+      <c r="L120" s="6">
+        <f t="shared" si="9"/>
+        <v>1.32</v>
       </c>
       <c r="P120" s="4">
         <v>5</v>
       </c>
       <c r="Q120" s="19">
+        <f t="shared" si="10"/>
+        <v>41.5</v>
+      </c>
+      <c r="R120" s="33">
+        <f t="shared" si="10"/>
+        <v>49.375</v>
+      </c>
+      <c r="S120" s="51">
+        <f t="shared" si="10"/>
+        <v>57.25</v>
+      </c>
+      <c r="T120" s="45">
+        <f t="shared" si="10"/>
+        <v>65.125</v>
+      </c>
+      <c r="U120" s="45">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="V120" s="45">
+        <f t="shared" si="10"/>
+        <v>80.875</v>
+      </c>
+      <c r="W120" s="22">
+        <f t="shared" si="10"/>
+        <v>88.75</v>
+      </c>
+      <c r="Z120" s="56">
+        <v>5</v>
+      </c>
+      <c r="AA120" s="53">
         <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="R120" s="34">
+      <c r="AB120" s="33">
         <f t="shared" si="13"/>
         <v>66.25</v>
       </c>
-      <c r="S120" s="91">
+      <c r="AC120" s="51">
         <f t="shared" si="13"/>
         <v>77.5</v>
       </c>
-      <c r="T120" s="70">
+      <c r="AD120" s="45">
         <f t="shared" si="13"/>
         <v>88.75</v>
       </c>
-      <c r="U120" s="70">
+      <c r="AE120" s="45">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="V120" s="70">
+      <c r="AF120" s="45">
         <f t="shared" si="13"/>
         <v>111.25</v>
       </c>
-      <c r="W120" s="22">
+      <c r="AG120" s="22">
         <f t="shared" si="13"/>
         <v>122.5</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>6</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" ref="D121:F121" si="18">ROUNDDOWN(100/D109,0)</f>
-        <v>6</v>
+        <f t="shared" ref="D121:E121" si="18">ROUNDDOWN(100/C109,0)+1</f>
+        <v>7</v>
       </c>
       <c r="E121" s="7">
         <f t="shared" si="18"/>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F121" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="G121" s="68">
+        <f>ROUNDDOWN(100/F109,0)</f>
         <v>18</v>
       </c>
-      <c r="H121" s="58">
-        <f t="shared" si="11"/>
-        <v>66</v>
-      </c>
-      <c r="I121" s="59"/>
-      <c r="J121" s="7">
-        <f t="shared" si="12"/>
-        <v>1.1000000000000001</v>
+      <c r="H121" s="7">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="J121" s="84">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="K121" s="85"/>
+      <c r="L121" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="O121" s="60" t="s">
+        <v>48</v>
       </c>
       <c r="P121" s="4">
         <v>6</v>
       </c>
       <c r="Q121" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="R121" s="52">
+        <f t="shared" si="10"/>
+        <v>47.5</v>
+      </c>
+      <c r="S121" s="46">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="T121" s="46">
+        <f t="shared" si="10"/>
+        <v>62.5</v>
+      </c>
+      <c r="U121" s="46">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="V121" s="46">
+        <f t="shared" si="10"/>
+        <v>77.5</v>
+      </c>
+      <c r="W121" s="44">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="Z121" s="56">
+        <v>6</v>
+      </c>
+      <c r="AA121" s="59">
+        <f>(30+5*$P121)+(5+1.25*$P121)*AA$114</f>
         <v>60</v>
       </c>
-      <c r="R121" s="92">
+      <c r="AB121" s="52">
         <f t="shared" si="13"/>
         <v>72.5</v>
       </c>
-      <c r="S121" s="71">
+      <c r="AC121" s="46">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="T121" s="71">
+      <c r="AD121" s="46">
         <f t="shared" si="13"/>
         <v>97.5</v>
       </c>
-      <c r="U121" s="71">
+      <c r="AE121" s="46">
         <f t="shared" si="13"/>
         <v>110</v>
       </c>
-      <c r="V121" s="71">
+      <c r="AF121" s="46">
         <f t="shared" si="13"/>
         <v>122.5</v>
       </c>
-      <c r="W121" s="69">
+      <c r="AG121" s="44">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="P124" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q124" s="60"/>
-      <c r="R124" s="60"/>
-    </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="P126" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q126" s="42">
+    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P124" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q124" s="77"/>
+      <c r="R124" s="77"/>
+    </row>
+    <row r="126" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P126" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q126" s="40">
         <v>0</v>
       </c>
-      <c r="R126" s="42">
+      <c r="R126" s="40">
         <v>1</v>
       </c>
-      <c r="S126" s="42">
+      <c r="S126" s="40">
         <v>2</v>
       </c>
-      <c r="T126" s="42">
+      <c r="T126" s="40">
         <v>3</v>
       </c>
-      <c r="U126" s="42">
+      <c r="U126" s="40">
         <v>4</v>
       </c>
-      <c r="V126" s="42">
+      <c r="V126" s="40">
         <v>5</v>
       </c>
-      <c r="W126" s="42">
+      <c r="W126" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P127" s="42">
+    <row r="127" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P127" s="40">
         <v>0</v>
       </c>
-      <c r="Q127" s="43">
-        <f>ROUND(Q115/$J115,2)</f>
-        <v>10.91</v>
+      <c r="Q127" s="41">
+        <f t="shared" ref="Q127:W133" si="19">ROUND(Q115/$L115,2)</f>
+        <v>11.45</v>
       </c>
       <c r="R127" s="29">
-        <f t="shared" ref="R127:W127" si="19">ROUND(R115/$J115,2)</f>
-        <v>12.73</v>
+        <f t="shared" si="19"/>
+        <v>13.36</v>
       </c>
       <c r="S127" s="29">
         <f t="shared" si="19"/>
-        <v>14.55</v>
+        <v>15.27</v>
       </c>
       <c r="T127" s="29">
         <f t="shared" si="19"/>
-        <v>16.36</v>
+        <v>17.18</v>
       </c>
       <c r="U127" s="29">
         <f t="shared" si="19"/>
-        <v>18.18</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="V127" s="29">
         <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="W127" s="44">
+        <v>20.99</v>
+      </c>
+      <c r="W127" s="42">
         <f t="shared" si="19"/>
-        <v>21.82</v>
-      </c>
-    </row>
-    <row r="128" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P128" s="73">
+        <v>22.9</v>
+      </c>
+      <c r="Z127" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA127" s="91"/>
+    </row>
+    <row r="128" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" s="78"/>
+      <c r="P128" s="48">
         <v>1</v>
       </c>
-      <c r="Q128" s="40">
-        <f t="shared" ref="Q128:W133" si="20">ROUND(Q116/$J116,2)</f>
-        <v>15.91</v>
-      </c>
-      <c r="R128" s="34">
-        <f t="shared" ref="R128:W128" si="21">ROUND(R116/$J116,2)</f>
-        <v>18.75</v>
-      </c>
-      <c r="S128" s="34">
-        <f t="shared" si="21"/>
-        <v>21.59</v>
-      </c>
-      <c r="T128" s="34">
-        <f t="shared" si="21"/>
-        <v>24.43</v>
-      </c>
-      <c r="U128" s="34">
-        <f t="shared" si="21"/>
-        <v>27.27</v>
-      </c>
-      <c r="V128" s="34">
-        <f t="shared" si="21"/>
-        <v>30.11</v>
-      </c>
-      <c r="W128" s="90">
-        <f t="shared" si="21"/>
-        <v>32.950000000000003</v>
-      </c>
-    </row>
-    <row r="129" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P129" s="42">
+      <c r="Q128" s="38">
+        <f t="shared" si="19"/>
+        <v>16.059999999999999</v>
+      </c>
+      <c r="R128" s="33">
+        <f t="shared" si="19"/>
+        <v>18.920000000000002</v>
+      </c>
+      <c r="S128" s="33">
+        <f t="shared" si="19"/>
+        <v>21.79</v>
+      </c>
+      <c r="T128" s="33">
+        <f t="shared" si="19"/>
+        <v>24.66</v>
+      </c>
+      <c r="U128" s="33">
+        <f t="shared" si="19"/>
+        <v>27.52</v>
+      </c>
+      <c r="V128" s="33">
+        <f t="shared" si="19"/>
+        <v>30.39</v>
+      </c>
+      <c r="W128" s="50">
+        <f t="shared" si="19"/>
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P129" s="40">
         <v>2</v>
       </c>
-      <c r="Q129" s="40">
+      <c r="Q129" s="38">
+        <f t="shared" si="19"/>
+        <v>20.51</v>
+      </c>
+      <c r="R129" s="33">
+        <f t="shared" si="19"/>
+        <v>24.36</v>
+      </c>
+      <c r="S129" s="33">
+        <f t="shared" si="19"/>
+        <v>28.21</v>
+      </c>
+      <c r="T129" s="33">
+        <f t="shared" si="19"/>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="U129" s="33">
+        <f t="shared" si="19"/>
+        <v>35.9</v>
+      </c>
+      <c r="V129" s="51">
+        <f t="shared" si="19"/>
+        <v>39.74</v>
+      </c>
+      <c r="W129" s="22">
+        <f t="shared" si="19"/>
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G130" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H130" s="76"/>
+      <c r="I130" s="76"/>
+      <c r="J130" s="76"/>
+      <c r="K130" s="76"/>
+      <c r="L130" s="76"/>
+      <c r="M130" s="76"/>
+      <c r="P130" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q130" s="38">
+        <f t="shared" si="19"/>
+        <v>24.44</v>
+      </c>
+      <c r="R130" s="33">
+        <f t="shared" si="19"/>
+        <v>29.04</v>
+      </c>
+      <c r="S130" s="33">
+        <f t="shared" si="19"/>
+        <v>33.64</v>
+      </c>
+      <c r="T130" s="49">
+        <f t="shared" si="19"/>
+        <v>38.229999999999997</v>
+      </c>
+      <c r="U130" s="51">
+        <f t="shared" si="19"/>
+        <v>42.83</v>
+      </c>
+      <c r="V130" s="45">
+        <f t="shared" si="19"/>
+        <v>47.42</v>
+      </c>
+      <c r="W130" s="22">
+        <f t="shared" si="19"/>
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" s="76"/>
+      <c r="H131" s="76"/>
+      <c r="I131" s="76"/>
+      <c r="J131" s="76"/>
+      <c r="K131" s="76"/>
+      <c r="L131" s="76"/>
+      <c r="M131" s="76"/>
+      <c r="P131" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q131" s="38">
+        <f t="shared" si="19"/>
+        <v>27.66</v>
+      </c>
+      <c r="R131" s="33">
+        <f t="shared" si="19"/>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="S131" s="47">
+        <f t="shared" si="19"/>
+        <v>38.1</v>
+      </c>
+      <c r="T131" s="51">
+        <f t="shared" si="19"/>
+        <v>43.31</v>
+      </c>
+      <c r="U131" s="45">
+        <f t="shared" si="19"/>
+        <v>48.53</v>
+      </c>
+      <c r="V131" s="45">
+        <f t="shared" si="19"/>
+        <v>53.74</v>
+      </c>
+      <c r="W131" s="22">
+        <f t="shared" si="19"/>
+        <v>58.96</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D132" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E132" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G132" s="76"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
+      <c r="K132" s="76"/>
+      <c r="L132" s="76"/>
+      <c r="M132" s="76"/>
+      <c r="P132" s="40">
+        <v>5</v>
+      </c>
+      <c r="Q132" s="38">
+        <f t="shared" si="19"/>
+        <v>31.44</v>
+      </c>
+      <c r="R132" s="33">
+        <f t="shared" si="19"/>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="S132" s="51">
+        <f t="shared" si="19"/>
+        <v>43.37</v>
+      </c>
+      <c r="T132" s="45">
+        <f t="shared" si="19"/>
+        <v>49.34</v>
+      </c>
+      <c r="U132" s="45">
+        <f t="shared" si="19"/>
+        <v>55.3</v>
+      </c>
+      <c r="V132" s="45">
+        <f t="shared" si="19"/>
+        <v>61.27</v>
+      </c>
+      <c r="W132" s="22">
+        <f t="shared" si="19"/>
+        <v>67.23</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
+      <c r="K133" s="76"/>
+      <c r="L133" s="76"/>
+      <c r="M133" s="76"/>
+      <c r="P133" s="40">
+        <v>6</v>
+      </c>
+      <c r="Q133" s="43">
+        <f t="shared" si="19"/>
+        <v>33.33</v>
+      </c>
+      <c r="R133" s="52">
+        <f t="shared" si="19"/>
+        <v>39.58</v>
+      </c>
+      <c r="S133" s="46">
+        <f t="shared" si="19"/>
+        <v>45.83</v>
+      </c>
+      <c r="T133" s="46">
+        <f t="shared" si="19"/>
+        <v>52.08</v>
+      </c>
+      <c r="U133" s="46">
+        <f t="shared" si="19"/>
+        <v>58.33</v>
+      </c>
+      <c r="V133" s="46">
+        <f t="shared" si="19"/>
+        <v>64.58</v>
+      </c>
+      <c r="W133" s="44">
+        <f t="shared" si="19"/>
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C134" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C135" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E135" s="75"/>
+      <c r="F135" s="75"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="75"/>
+      <c r="I135" s="75"/>
+      <c r="J135" s="75"/>
+      <c r="K135" s="75"/>
+      <c r="L135" s="75"/>
+      <c r="M135" s="75"/>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C136" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D136" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E136" s="75"/>
+      <c r="F136" s="75"/>
+      <c r="G136" s="75"/>
+      <c r="H136" s="75"/>
+      <c r="I136" s="75"/>
+      <c r="J136" s="75"/>
+      <c r="K136" s="75"/>
+      <c r="L136" s="75"/>
+      <c r="M136" s="75"/>
+      <c r="P136" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q136" s="77"/>
+      <c r="R136" s="77"/>
+      <c r="S136" s="77"/>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C137" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D137" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="75"/>
+      <c r="F137" s="75"/>
+      <c r="G137" s="75"/>
+      <c r="H137" s="75"/>
+      <c r="I137" s="75"/>
+      <c r="J137" s="75"/>
+      <c r="K137" s="75"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="75"/>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C138" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138" s="75"/>
+      <c r="F138" s="75"/>
+      <c r="G138" s="75"/>
+      <c r="H138" s="75"/>
+      <c r="I138" s="75"/>
+      <c r="J138" s="75"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="75"/>
+      <c r="M138" s="75"/>
+      <c r="P138" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q138" s="61">
+        <v>0</v>
+      </c>
+      <c r="R138" s="61">
+        <v>1</v>
+      </c>
+      <c r="S138" s="61">
+        <v>2</v>
+      </c>
+      <c r="T138" s="61">
+        <v>3</v>
+      </c>
+      <c r="U138" s="61">
+        <v>4</v>
+      </c>
+      <c r="V138" s="61">
+        <v>5</v>
+      </c>
+      <c r="W138" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P139" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" ref="Q139:W145" si="20">ROUND($J115/($J115+SUM($C115:$D115)/Q$105)*Q127,3)</f>
+        <v>10.763999999999999</v>
+      </c>
+      <c r="R139" s="29">
         <f t="shared" si="20"/>
-        <v>21.86</v>
-      </c>
-      <c r="R129" s="34">
-        <f t="shared" ref="R129:W129" si="22">ROUND(R117/$J117,2)</f>
-        <v>25.96</v>
-      </c>
-      <c r="S129" s="34">
-        <f t="shared" si="22"/>
-        <v>30.05</v>
-      </c>
-      <c r="T129" s="34">
-        <f t="shared" si="22"/>
-        <v>34.15</v>
-      </c>
-      <c r="U129" s="34">
-        <f t="shared" si="22"/>
-        <v>38.25</v>
-      </c>
-      <c r="V129" s="91">
-        <f t="shared" si="22"/>
-        <v>42.35</v>
-      </c>
-      <c r="W129" s="22">
-        <f t="shared" si="22"/>
-        <v>46.45</v>
-      </c>
-    </row>
-    <row r="130" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P130" s="42">
+        <v>12.56</v>
+      </c>
+      <c r="S139" s="29">
+        <f t="shared" si="20"/>
+        <v>14.648</v>
+      </c>
+      <c r="T139" s="29">
+        <f t="shared" si="20"/>
+        <v>16.48</v>
+      </c>
+      <c r="U139" s="29">
+        <f t="shared" si="20"/>
+        <v>18.491</v>
+      </c>
+      <c r="V139" s="29">
+        <f t="shared" si="20"/>
+        <v>20.341999999999999</v>
+      </c>
+      <c r="W139" s="62">
+        <f t="shared" si="20"/>
+        <v>22.331</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P140" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="63">
+        <f t="shared" si="20"/>
+        <v>15.135999999999999</v>
+      </c>
+      <c r="R140" s="33">
+        <f t="shared" si="20"/>
+        <v>17.831</v>
+      </c>
+      <c r="S140" s="33">
+        <f t="shared" si="20"/>
+        <v>20.937999999999999</v>
+      </c>
+      <c r="T140" s="33">
+        <f t="shared" si="20"/>
+        <v>23.695</v>
+      </c>
+      <c r="U140" s="33">
+        <f t="shared" si="20"/>
+        <v>26.704999999999998</v>
+      </c>
+      <c r="V140" s="33">
+        <f t="shared" si="20"/>
+        <v>29.49</v>
+      </c>
+      <c r="W140" s="50">
+        <f t="shared" si="20"/>
+        <v>32.466999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" s="78"/>
+      <c r="G141" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="H141" s="78"/>
+      <c r="K141" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="L141" s="78"/>
+      <c r="P141" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q141" s="63">
+        <f t="shared" si="20"/>
+        <v>19.274000000000001</v>
+      </c>
+      <c r="R141" s="33">
+        <f t="shared" si="20"/>
+        <v>22.893000000000001</v>
+      </c>
+      <c r="S141" s="33">
+        <f t="shared" si="20"/>
+        <v>27.053999999999998</v>
+      </c>
+      <c r="T141" s="33">
+        <f t="shared" si="20"/>
+        <v>30.736000000000001</v>
+      </c>
+      <c r="U141" s="33">
+        <f t="shared" si="20"/>
+        <v>34.784999999999997</v>
+      </c>
+      <c r="V141" s="51">
+        <f t="shared" si="20"/>
+        <v>38.506</v>
+      </c>
+      <c r="W141" s="22">
+        <f t="shared" si="20"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P142" s="61">
         <v>3</v>
       </c>
-      <c r="Q130" s="40">
+      <c r="Q142" s="63">
         <f t="shared" si="20"/>
-        <v>29.41</v>
-      </c>
-      <c r="R130" s="34">
-        <f t="shared" ref="R130:W130" si="23">ROUND(R118/$J118,2)</f>
-        <v>35.130000000000003</v>
-      </c>
-      <c r="S130" s="34">
-        <f t="shared" si="23"/>
-        <v>40.85</v>
-      </c>
-      <c r="T130" s="74">
-        <f t="shared" si="23"/>
-        <v>46.57</v>
-      </c>
-      <c r="U130" s="91">
-        <f t="shared" si="23"/>
-        <v>52.29</v>
-      </c>
-      <c r="V130" s="70">
-        <f t="shared" si="23"/>
-        <v>58.01</v>
-      </c>
-      <c r="W130" s="22">
-        <f t="shared" si="23"/>
-        <v>63.73</v>
-      </c>
-    </row>
-    <row r="131" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P131" s="42">
+        <v>23.042999999999999</v>
+      </c>
+      <c r="R142" s="33">
+        <f t="shared" si="20"/>
+        <v>27.381</v>
+      </c>
+      <c r="S142" s="33">
+        <f t="shared" si="20"/>
+        <v>32.334000000000003</v>
+      </c>
+      <c r="T142" s="49">
+        <f t="shared" si="20"/>
+        <v>36.744999999999997</v>
+      </c>
+      <c r="U142" s="51">
+        <f t="shared" si="20"/>
+        <v>41.57</v>
+      </c>
+      <c r="V142" s="45">
+        <f t="shared" si="20"/>
+        <v>46.024999999999999</v>
+      </c>
+      <c r="W142" s="22">
+        <f t="shared" si="20"/>
+        <v>50.789000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D143" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E143" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G143" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H143" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="I143" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="K143" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="L143" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="M143" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="P143" s="61">
         <v>4</v>
       </c>
-      <c r="Q131" s="40">
+      <c r="Q143" s="63">
         <f t="shared" si="20"/>
-        <v>37.04</v>
-      </c>
-      <c r="R131" s="34">
-        <f t="shared" ref="R131:W131" si="24">ROUND(R119/$J119,2)</f>
-        <v>44.44</v>
-      </c>
-      <c r="S131" s="34">
-        <f t="shared" si="24"/>
-        <v>51.85</v>
-      </c>
-      <c r="T131" s="91">
-        <f t="shared" si="24"/>
-        <v>59.26</v>
-      </c>
-      <c r="U131" s="70">
-        <f t="shared" si="24"/>
-        <v>66.67</v>
-      </c>
-      <c r="V131" s="70">
-        <f t="shared" si="24"/>
-        <v>74.069999999999993</v>
-      </c>
-      <c r="W131" s="22">
-        <f t="shared" si="24"/>
-        <v>81.48</v>
-      </c>
-    </row>
-    <row r="132" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P132" s="42">
+        <v>26.033000000000001</v>
+      </c>
+      <c r="R143" s="33">
+        <f t="shared" si="20"/>
+        <v>30.946000000000002</v>
+      </c>
+      <c r="S143" s="47">
+        <f t="shared" si="20"/>
+        <v>36.576000000000001</v>
+      </c>
+      <c r="T143" s="51">
+        <f t="shared" si="20"/>
+        <v>41.578000000000003</v>
+      </c>
+      <c r="U143" s="45">
+        <f t="shared" si="20"/>
+        <v>47.058999999999997</v>
+      </c>
+      <c r="V143" s="45">
+        <f t="shared" si="20"/>
+        <v>52.112000000000002</v>
+      </c>
+      <c r="W143" s="22">
+        <f t="shared" si="20"/>
+        <v>57.521999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G144" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H144" s="74"/>
+      <c r="I144" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="K144" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="L144" s="74"/>
+      <c r="M144" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="P144" s="61">
         <v>5</v>
       </c>
-      <c r="Q132" s="40">
+      <c r="Q144" s="63">
         <f t="shared" si="20"/>
-        <v>45.83</v>
-      </c>
-      <c r="R132" s="72">
-        <f t="shared" ref="R132:W132" si="25">ROUND(R120/$J120,2)</f>
-        <v>55.21</v>
-      </c>
-      <c r="S132" s="91">
-        <f t="shared" si="25"/>
-        <v>64.58</v>
-      </c>
-      <c r="T132" s="70">
-        <f t="shared" si="25"/>
-        <v>73.959999999999994</v>
-      </c>
-      <c r="U132" s="70">
-        <f t="shared" si="25"/>
-        <v>83.33</v>
-      </c>
-      <c r="V132" s="70">
-        <f t="shared" si="25"/>
-        <v>92.71</v>
-      </c>
-      <c r="W132" s="22">
-        <f t="shared" si="25"/>
-        <v>102.08</v>
-      </c>
-    </row>
-    <row r="133" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P133" s="42">
+        <v>29.568999999999999</v>
+      </c>
+      <c r="R144" s="33">
+        <f t="shared" si="20"/>
+        <v>35.183</v>
+      </c>
+      <c r="S144" s="51">
+        <f t="shared" si="20"/>
+        <v>41.613999999999997</v>
+      </c>
+      <c r="T144" s="45">
+        <f t="shared" si="20"/>
+        <v>47.341999999999999</v>
+      </c>
+      <c r="U144" s="45">
+        <f t="shared" si="20"/>
+        <v>53.603999999999999</v>
+      </c>
+      <c r="V144" s="45">
+        <f t="shared" si="20"/>
+        <v>59.390999999999998</v>
+      </c>
+      <c r="W144" s="22">
+        <f t="shared" si="20"/>
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C145" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E145" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G145" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H145" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I145" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="K145" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="L145" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="M145" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="P145" s="61">
         <v>6</v>
       </c>
-      <c r="Q133" s="45">
+      <c r="Q145" s="64">
         <f t="shared" si="20"/>
-        <v>54.55</v>
-      </c>
-      <c r="R133" s="92">
-        <f t="shared" ref="R133:W133" si="26">ROUND(R121/$J121,2)</f>
-        <v>65.91</v>
-      </c>
-      <c r="S133" s="71">
-        <f t="shared" si="26"/>
-        <v>77.27</v>
-      </c>
-      <c r="T133" s="71">
-        <f t="shared" si="26"/>
-        <v>88.64</v>
-      </c>
-      <c r="U133" s="71">
-        <f t="shared" si="26"/>
+        <v>31.166</v>
+      </c>
+      <c r="R145" s="52">
+        <f t="shared" si="20"/>
+        <v>37.01</v>
+      </c>
+      <c r="S145" s="46">
+        <f t="shared" si="20"/>
+        <v>43.802</v>
+      </c>
+      <c r="T145" s="46">
+        <f t="shared" si="20"/>
+        <v>49.776000000000003</v>
+      </c>
+      <c r="U145" s="46">
+        <f t="shared" si="20"/>
+        <v>56.372999999999998</v>
+      </c>
+      <c r="V145" s="46">
+        <f t="shared" si="20"/>
+        <v>62.412999999999997</v>
+      </c>
+      <c r="W145" s="44">
+        <f t="shared" si="20"/>
+        <v>68.915999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="V133" s="71">
-        <f t="shared" si="26"/>
-        <v>111.36</v>
-      </c>
-      <c r="W133" s="69">
-        <f t="shared" si="26"/>
-        <v>122.73</v>
-      </c>
-    </row>
-    <row r="136" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P136" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q136" s="60"/>
-      <c r="R136" s="60"/>
-    </row>
-    <row r="138" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P138" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q138" s="42">
-        <v>0</v>
-      </c>
-      <c r="R138" s="42">
-        <v>1</v>
-      </c>
-      <c r="S138" s="42">
-        <v>2</v>
-      </c>
-      <c r="T138" s="42">
-        <v>3</v>
-      </c>
-      <c r="U138" s="42">
-        <v>4</v>
-      </c>
-      <c r="V138" s="42">
-        <v>5</v>
-      </c>
-      <c r="W138" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P139" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q139" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="R139" s="75">
-        <f>(R127/Q127)-1</f>
-        <v>0.16681943171402391</v>
-      </c>
-      <c r="S139" s="75">
-        <f>(S127/R127)-1</f>
-        <v>0.14296936370777691</v>
-      </c>
-      <c r="T139" s="75">
-        <f t="shared" ref="T139:W139" si="27">(T127/S127)-1</f>
-        <v>0.12439862542955327</v>
-      </c>
-      <c r="U139" s="75">
-        <f t="shared" si="27"/>
-        <v>0.11124694376528121</v>
-      </c>
-      <c r="V139" s="75">
-        <f t="shared" si="27"/>
-        <v>0.10011001100110017</v>
-      </c>
-      <c r="W139" s="86">
-        <f t="shared" si="27"/>
-        <v>9.099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P140" s="73">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="R140" s="78">
-        <f>(R128/Q128)-1</f>
-        <v>0.17850408548082974</v>
-      </c>
-      <c r="S140" s="78">
-        <f t="shared" ref="R140:W140" si="28">(S128/R128)-1</f>
-        <v>0.15146666666666664</v>
-      </c>
-      <c r="T140" s="78">
-        <f t="shared" si="28"/>
-        <v>0.13154238073182034</v>
-      </c>
-      <c r="U140" s="78">
-        <f t="shared" si="28"/>
-        <v>0.11625051166598444</v>
-      </c>
-      <c r="V140" s="78">
-        <f t="shared" si="28"/>
-        <v>0.1041437477081042</v>
-      </c>
-      <c r="W140" s="87">
-        <f t="shared" si="28"/>
-        <v>9.4320823646629082E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P141" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q141" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="R141" s="78">
-        <f t="shared" ref="R141:W141" si="29">(R129/Q129)-1</f>
-        <v>0.18755718206770355</v>
-      </c>
-      <c r="S141" s="78">
-        <f t="shared" si="29"/>
-        <v>0.15755007704160251</v>
-      </c>
-      <c r="T141" s="78">
-        <f t="shared" si="29"/>
-        <v>0.13643926788685512</v>
-      </c>
-      <c r="U141" s="78">
-        <f t="shared" si="29"/>
-        <v>0.12005856515373359</v>
-      </c>
-      <c r="V141" s="88">
-        <f t="shared" si="29"/>
-        <v>0.10718954248366019</v>
-      </c>
-      <c r="W141" s="79">
-        <f t="shared" si="29"/>
-        <v>9.681227863046038E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P142" s="42">
-        <v>3</v>
-      </c>
-      <c r="Q142" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="R142" s="78">
-        <f t="shared" ref="R142:W142" si="30">(R130/Q130)-1</f>
-        <v>0.19449166950017016</v>
-      </c>
-      <c r="S142" s="78">
-        <f t="shared" si="30"/>
-        <v>0.16282379732422436</v>
-      </c>
-      <c r="T142" s="81">
-        <f t="shared" si="30"/>
-        <v>0.14002447980416144</v>
-      </c>
-      <c r="U142" s="88">
-        <f t="shared" si="30"/>
-        <v>0.12282585355379005</v>
-      </c>
-      <c r="V142" s="80">
-        <f t="shared" si="30"/>
-        <v>0.10938994071524188</v>
-      </c>
-      <c r="W142" s="79">
-        <f t="shared" si="30"/>
-        <v>9.8603689019134633E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P143" s="42">
-        <v>4</v>
-      </c>
-      <c r="Q143" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="R143" s="78">
-        <f t="shared" ref="R143:W143" si="31">(R131/Q131)-1</f>
-        <v>0.19978401727861761</v>
-      </c>
-      <c r="S143" s="78">
-        <f t="shared" si="31"/>
-        <v>0.16674167416741681</v>
-      </c>
-      <c r="T143" s="88">
-        <f t="shared" si="31"/>
-        <v>0.14291224686595938</v>
-      </c>
-      <c r="U143" s="80">
-        <f t="shared" si="31"/>
-        <v>0.12504218697266301</v>
-      </c>
-      <c r="V143" s="80">
-        <f t="shared" si="31"/>
-        <v>0.110994450277486</v>
-      </c>
-      <c r="W143" s="79">
-        <f t="shared" si="31"/>
-        <v>0.10004050222762273</v>
-      </c>
-    </row>
-    <row r="144" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P144" s="42">
-        <v>5</v>
-      </c>
-      <c r="Q144" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="R144" s="82">
-        <f t="shared" ref="R144:W144" si="32">(R132/Q132)-1</f>
-        <v>0.20466943050403663</v>
-      </c>
-      <c r="S144" s="88">
-        <f t="shared" si="32"/>
-        <v>0.16971563122622713</v>
-      </c>
-      <c r="T144" s="80">
-        <f t="shared" si="32"/>
-        <v>0.14524620625580664</v>
-      </c>
-      <c r="U144" s="80">
-        <f t="shared" si="32"/>
-        <v>0.12669010275824788</v>
-      </c>
-      <c r="V144" s="80">
-        <f t="shared" si="32"/>
-        <v>0.1125645025801032</v>
-      </c>
-      <c r="W144" s="79">
-        <f t="shared" si="32"/>
-        <v>0.10106784597130836</v>
-      </c>
-    </row>
-    <row r="145" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P145" s="42">
-        <v>6</v>
-      </c>
-      <c r="Q145" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="R145" s="89">
-        <f t="shared" ref="R145:W145" si="33">(R133/Q133)-1</f>
-        <v>0.20824931255728685</v>
-      </c>
-      <c r="S145" s="84">
-        <f t="shared" si="33"/>
-        <v>0.1723562433621606</v>
-      </c>
-      <c r="T145" s="84">
-        <f t="shared" si="33"/>
-        <v>0.14714636987187779</v>
-      </c>
-      <c r="U145" s="84">
-        <f t="shared" si="33"/>
-        <v>0.12815884476534301</v>
-      </c>
-      <c r="V145" s="84">
-        <f t="shared" si="33"/>
-        <v>0.11359999999999992</v>
-      </c>
-      <c r="W145" s="85">
-        <f t="shared" si="33"/>
-        <v>0.1021012931034484</v>
-      </c>
-    </row>
-    <row r="148" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P148" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q148" s="60"/>
-      <c r="R148" s="60"/>
-    </row>
-    <row r="150" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P150" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q150" s="42">
-        <v>0</v>
-      </c>
-      <c r="R150" s="42">
-        <v>1</v>
-      </c>
-      <c r="S150" s="42">
-        <v>2</v>
-      </c>
-      <c r="T150" s="42">
-        <v>3</v>
-      </c>
-      <c r="U150" s="42">
-        <v>4</v>
-      </c>
-      <c r="V150" s="42">
-        <v>5</v>
-      </c>
-      <c r="W150" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P151" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="R151" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="S151" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="T151" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="U151" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="V151" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="W151" s="86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P152" s="73">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="78">
-        <f>(Q128/Q127)-1</f>
-        <v>0.45829514207149402</v>
-      </c>
-      <c r="R152" s="78">
-        <f t="shared" ref="R152:W152" si="34">(R128/R127)-1</f>
-        <v>0.47289866457187735</v>
-      </c>
-      <c r="S152" s="78">
-        <f t="shared" si="34"/>
-        <v>0.48384879725085894</v>
-      </c>
-      <c r="T152" s="78">
-        <f t="shared" si="34"/>
-        <v>0.493276283618582</v>
-      </c>
-      <c r="U152" s="78">
-        <f t="shared" si="34"/>
-        <v>0.5</v>
-      </c>
-      <c r="V152" s="82">
-        <f t="shared" si="34"/>
-        <v>0.50550000000000006</v>
-      </c>
-      <c r="W152" s="87">
-        <f t="shared" si="34"/>
-        <v>0.51008249312557297</v>
-      </c>
-    </row>
-    <row r="153" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P153" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q153" s="77">
-        <f t="shared" ref="Q153:W157" si="35">(Q129/Q128)-1</f>
-        <v>0.37397862979258334</v>
-      </c>
-      <c r="R153" s="78">
-        <f t="shared" ref="R153:W153" si="36">(R129/R128)-1</f>
-        <v>0.38453333333333339</v>
-      </c>
-      <c r="S153" s="78">
-        <f t="shared" si="36"/>
-        <v>0.39184807781380271</v>
-      </c>
-      <c r="T153" s="78">
-        <f t="shared" si="36"/>
-        <v>0.3978714695047072</v>
-      </c>
-      <c r="U153" s="78">
-        <f t="shared" si="36"/>
-        <v>0.40264026402640263</v>
-      </c>
-      <c r="V153" s="88">
-        <f t="shared" si="36"/>
-        <v>0.40650946529392229</v>
-      </c>
-      <c r="W153" s="79">
-        <f t="shared" si="36"/>
-        <v>0.40971168437025796</v>
-      </c>
-    </row>
-    <row r="154" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P154" s="42">
-        <v>3</v>
-      </c>
-      <c r="Q154" s="77">
-        <f t="shared" si="35"/>
-        <v>0.34537968892955173</v>
-      </c>
-      <c r="R154" s="78">
-        <f t="shared" ref="R154:W154" si="37">(R130/R129)-1</f>
-        <v>0.3532357473035439</v>
-      </c>
-      <c r="S154" s="78">
-        <f t="shared" si="37"/>
-        <v>0.35940099833610661</v>
-      </c>
-      <c r="T154" s="81">
-        <f t="shared" si="37"/>
-        <v>0.36368960468521228</v>
-      </c>
-      <c r="U154" s="88">
-        <f t="shared" si="37"/>
-        <v>0.36705882352941166</v>
-      </c>
-      <c r="V154" s="80">
-        <f t="shared" si="37"/>
-        <v>0.3697756788665878</v>
-      </c>
-      <c r="W154" s="79">
-        <f t="shared" si="37"/>
-        <v>0.37201291711517737</v>
-      </c>
-    </row>
-    <row r="155" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P155" s="42">
-        <v>4</v>
-      </c>
-      <c r="Q155" s="77">
-        <f t="shared" si="35"/>
-        <v>0.25943556613396801</v>
-      </c>
-      <c r="R155" s="78">
-        <f t="shared" ref="R155:W155" si="38">(R131/R130)-1</f>
-        <v>0.26501565613435796</v>
-      </c>
-      <c r="S155" s="78">
-        <f t="shared" si="38"/>
-        <v>0.26927784577723379</v>
-      </c>
-      <c r="T155" s="88">
-        <f t="shared" si="38"/>
-        <v>0.27249302125832076</v>
-      </c>
-      <c r="U155" s="80">
-        <f t="shared" si="38"/>
-        <v>0.27500478102887738</v>
-      </c>
-      <c r="V155" s="80">
-        <f t="shared" si="38"/>
-        <v>0.27684881916910875</v>
-      </c>
-      <c r="W155" s="79">
-        <f t="shared" si="38"/>
-        <v>0.27851875098069989</v>
-      </c>
-    </row>
-    <row r="156" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P156" s="42">
-        <v>5</v>
-      </c>
-      <c r="Q156" s="77">
-        <f t="shared" si="35"/>
-        <v>0.23731101511879049</v>
-      </c>
-      <c r="R156" s="93">
-        <f t="shared" ref="R156:W156" si="39">(R132/R131)-1</f>
-        <v>0.24234923492349236</v>
-      </c>
-      <c r="S156" s="88">
-        <f t="shared" si="39"/>
-        <v>0.2455159112825458</v>
-      </c>
-      <c r="T156" s="80">
-        <f t="shared" si="39"/>
-        <v>0.24805939925750931</v>
-      </c>
-      <c r="U156" s="80">
-        <f t="shared" si="39"/>
-        <v>0.24988750562471873</v>
-      </c>
-      <c r="V156" s="80">
-        <f t="shared" si="39"/>
-        <v>0.25165384096125298</v>
-      </c>
-      <c r="W156" s="79">
-        <f t="shared" si="39"/>
-        <v>0.25282277859597446</v>
-      </c>
-    </row>
-    <row r="157" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P157" s="42">
-        <v>6</v>
-      </c>
-      <c r="Q157" s="83">
-        <f t="shared" si="35"/>
-        <v>0.19026838315513861</v>
-      </c>
-      <c r="R157" s="89">
-        <f t="shared" ref="R157:W157" si="40">(R133/R132)-1</f>
-        <v>0.19380547002354631</v>
-      </c>
-      <c r="S157" s="84">
-        <f t="shared" si="40"/>
-        <v>0.19650046454010517</v>
-      </c>
-      <c r="T157" s="84">
-        <f t="shared" si="40"/>
-        <v>0.19848566792861022</v>
-      </c>
-      <c r="U157" s="84">
-        <f t="shared" si="40"/>
-        <v>0.20004800192007677</v>
-      </c>
-      <c r="V157" s="84">
-        <f t="shared" si="40"/>
-        <v>0.20116492287779097</v>
-      </c>
-      <c r="W157" s="85">
-        <f t="shared" si="40"/>
-        <v>0.20229231974921635</v>
+      <c r="D147" s="78"/>
+      <c r="G147" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="H147" s="78"/>
+    </row>
+    <row r="148" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="K148" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="L148" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="M148" s="75"/>
+    </row>
+    <row r="149" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C149" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D149" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E149" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G149" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H149" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I149" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="150" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C150" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G150" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H150" s="74"/>
+      <c r="I150" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C151" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E151" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G151" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H151" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I151" s="74" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="P136:R136"/>
-    <mergeCell ref="P148:R148"/>
-    <mergeCell ref="Q100:U100"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="P124:R124"/>
+  <mergeCells count="52">
+    <mergeCell ref="Z127:AA127"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="P7:R8"/>
+    <mergeCell ref="I13:L16"/>
+    <mergeCell ref="I35:K36"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I9:K10"/>
+    <mergeCell ref="X30:AA32"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
     <mergeCell ref="AN37:AP37"/>
     <mergeCell ref="AC31:AE32"/>
-    <mergeCell ref="H121:I121"/>
     <mergeCell ref="P112:R112"/>
     <mergeCell ref="B97:D98"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="K103:M103"/>
-    <mergeCell ref="R35:S35"/>
     <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="X30:AA32"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="P7:R8"/>
-    <mergeCell ref="H13:K16"/>
-    <mergeCell ref="I35:K36"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="Z112:AC112"/>
+    <mergeCell ref="Q100:U100"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="P124:R124"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="D138:M138"/>
+    <mergeCell ref="G130:M133"/>
+    <mergeCell ref="P136:S136"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="D135:M135"/>
+    <mergeCell ref="D136:M136"/>
+    <mergeCell ref="D137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
